--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK397"/>
+  <dimension ref="A1:BK399"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT3" t="n">
         <v>0.72</v>
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT13" t="n">
         <v>1.44</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT31" t="n">
         <v>0.83</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT37" t="n">
         <v>0.83</v>
@@ -8820,7 +8820,7 @@
         <v>1.39</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU41" t="n">
         <v>1.21</v>
@@ -10444,7 +10444,7 @@
         <v>1.5</v>
       </c>
       <c r="AT49" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU49" t="n">
         <v>1.62</v>
@@ -11862,7 +11862,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT56" t="n">
         <v>0.89</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT58" t="n">
         <v>0.5</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="AS75" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT75" t="n">
         <v>1.05</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT83" t="n">
         <v>1.17</v>
@@ -17752,7 +17752,7 @@
         <v>1.68</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU85" t="n">
         <v>1.55</v>
@@ -20794,7 +20794,7 @@
         <v>0</v>
       </c>
       <c r="AS100" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT100" t="n">
         <v>0.83</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT101" t="n">
         <v>0.83</v>
@@ -21609,7 +21609,7 @@
         <v>2.17</v>
       </c>
       <c r="AT104" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU104" t="n">
         <v>1.74</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT124" t="n">
         <v>1</v>
@@ -27087,10 +27087,10 @@
         <v>2</v>
       </c>
       <c r="AS131" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT131" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU131" t="n">
         <v>1.84</v>
@@ -30944,7 +30944,7 @@
         <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT150" t="n">
         <v>1.11</v>
@@ -31147,7 +31147,7 @@
         <v>0.83</v>
       </c>
       <c r="AS151" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT151" t="n">
         <v>0.5</v>
@@ -31759,7 +31759,7 @@
         <v>1.61</v>
       </c>
       <c r="AT154" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU154" t="n">
         <v>1.48</v>
@@ -34398,7 +34398,7 @@
         <v>2.67</v>
       </c>
       <c r="AT167" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU167" t="n">
         <v>1.5</v>
@@ -35410,7 +35410,7 @@
         <v>0.57</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT172" t="n">
         <v>0.5600000000000001</v>
@@ -35816,7 +35816,7 @@
         <v>1.71</v>
       </c>
       <c r="AS174" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT174" t="n">
         <v>1.28</v>
@@ -39473,7 +39473,7 @@
         <v>1.67</v>
       </c>
       <c r="AT192" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU192" t="n">
         <v>1.63</v>
@@ -39876,7 +39876,7 @@
         <v>0.88</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT194" t="n">
         <v>0.82</v>
@@ -40485,7 +40485,7 @@
         <v>0.75</v>
       </c>
       <c r="AS197" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT197" t="n">
         <v>0.67</v>
@@ -43327,7 +43327,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT211" t="n">
         <v>0.72</v>
@@ -44545,7 +44545,7 @@
         <v>1.11</v>
       </c>
       <c r="AS217" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT217" t="n">
         <v>1.11</v>
@@ -45157,7 +45157,7 @@
         <v>1.83</v>
       </c>
       <c r="AT220" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU220" t="n">
         <v>1.74</v>
@@ -46169,7 +46169,7 @@
         <v>1.7</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT225" t="n">
         <v>1.61</v>
@@ -49620,7 +49620,7 @@
         <v>0.4</v>
       </c>
       <c r="AS242" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT242" t="n">
         <v>0.5600000000000001</v>
@@ -49826,7 +49826,7 @@
         <v>1.89</v>
       </c>
       <c r="AT243" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU243" t="n">
         <v>1.11</v>
@@ -50635,7 +50635,7 @@
         <v>0.82</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT247" t="n">
         <v>1</v>
@@ -51447,7 +51447,7 @@
         <v>0.55</v>
       </c>
       <c r="AS251" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT251" t="n">
         <v>0.61</v>
@@ -54292,7 +54292,7 @@
         <v>1.67</v>
       </c>
       <c r="AT265" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU265" t="n">
         <v>1.9</v>
@@ -54898,7 +54898,7 @@
         <v>0.82</v>
       </c>
       <c r="AS268" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT268" t="n">
         <v>0.82</v>
@@ -57337,7 +57337,7 @@
         <v>1.83</v>
       </c>
       <c r="AT280" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU280" t="n">
         <v>1.89</v>
@@ -57740,7 +57740,7 @@
         <v>0.5</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT282" t="n">
         <v>0.89</v>
@@ -60582,7 +60582,7 @@
         <v>1.33</v>
       </c>
       <c r="AS296" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT296" t="n">
         <v>1.44</v>
@@ -62818,7 +62818,7 @@
         <v>1.61</v>
       </c>
       <c r="AT307" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU307" t="n">
         <v>1.32</v>
@@ -63018,7 +63018,7 @@
         <v>1.14</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT308" t="n">
         <v>1.05</v>
@@ -63424,7 +63424,7 @@
         <v>1</v>
       </c>
       <c r="AS310" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT310" t="n">
         <v>0.89</v>
@@ -65254,7 +65254,7 @@
         <v>1.44</v>
       </c>
       <c r="AT319" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU319" t="n">
         <v>1.18</v>
@@ -67687,7 +67687,7 @@
         <v>1.36</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT331" t="n">
         <v>1.28</v>
@@ -68093,7 +68093,7 @@
         <v>1.4</v>
       </c>
       <c r="AS333" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT333" t="n">
         <v>1.17</v>
@@ -69314,7 +69314,7 @@
         <v>1.83</v>
       </c>
       <c r="AT339" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU339" t="n">
         <v>1.63</v>
@@ -71747,7 +71747,7 @@
         <v>1.53</v>
       </c>
       <c r="AS351" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT351" t="n">
         <v>1.44</v>
@@ -73168,7 +73168,7 @@
         <v>1</v>
       </c>
       <c r="AS358" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT358" t="n">
         <v>1</v>
@@ -73577,7 +73577,7 @@
         <v>1.61</v>
       </c>
       <c r="AT360" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU360" t="n">
         <v>1.65</v>
@@ -73980,7 +73980,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS362" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT362" t="n">
         <v>0.67</v>
@@ -77025,7 +77025,7 @@
         <v>0.47</v>
       </c>
       <c r="AS377" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="AT377" t="n">
         <v>0.61</v>
@@ -77637,7 +77637,7 @@
         <v>1.24</v>
       </c>
       <c r="AT380" t="n">
-        <v>1.28</v>
+        <v>1.37</v>
       </c>
       <c r="AU380" t="n">
         <v>1.47</v>
@@ -78040,7 +78040,7 @@
         <v>1.59</v>
       </c>
       <c r="AS382" t="n">
-        <v>2.17</v>
+        <v>2.11</v>
       </c>
       <c r="AT382" t="n">
         <v>1.56</v>
@@ -81140,6 +81140,412 @@
       </c>
       <c r="BK397" t="n">
         <v>4</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="n">
+        <v>2604834</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E398" s="2" t="n">
+        <v>45037.66666666666</v>
+      </c>
+      <c r="F398" t="n">
+        <v>37</v>
+      </c>
+      <c r="G398" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="H398" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="I398" t="n">
+        <v>0</v>
+      </c>
+      <c r="J398" t="n">
+        <v>1</v>
+      </c>
+      <c r="K398" t="n">
+        <v>1</v>
+      </c>
+      <c r="L398" t="n">
+        <v>1</v>
+      </c>
+      <c r="M398" t="n">
+        <v>1</v>
+      </c>
+      <c r="N398" t="n">
+        <v>2</v>
+      </c>
+      <c r="O398" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="P398" t="inlineStr">
+        <is>
+          <t>['45+3']</t>
+        </is>
+      </c>
+      <c r="Q398" t="n">
+        <v>9</v>
+      </c>
+      <c r="R398" t="n">
+        <v>9</v>
+      </c>
+      <c r="S398" t="n">
+        <v>18</v>
+      </c>
+      <c r="T398" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="U398" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V398" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="W398" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X398" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y398" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Z398" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA398" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AB398" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC398" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AD398" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE398" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AF398" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG398" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH398" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI398" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ398" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK398" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL398" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AM398" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AN398" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO398" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP398" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AQ398" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR398" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS398" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AT398" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU398" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV398" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW398" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX398" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AY398" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ398" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BA398" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB398" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BC398" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BD398" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE398" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF398" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG398" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH398" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI398" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ398" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK398" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="n">
+        <v>2604842</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E399" s="2" t="n">
+        <v>45038.375</v>
+      </c>
+      <c r="F399" t="n">
+        <v>37</v>
+      </c>
+      <c r="G399" t="inlineStr">
+        <is>
+          <t>Villarreal II</t>
+        </is>
+      </c>
+      <c r="H399" t="inlineStr">
+        <is>
+          <t>Albacete Balompié</t>
+        </is>
+      </c>
+      <c r="I399" t="n">
+        <v>1</v>
+      </c>
+      <c r="J399" t="n">
+        <v>1</v>
+      </c>
+      <c r="K399" t="n">
+        <v>2</v>
+      </c>
+      <c r="L399" t="n">
+        <v>1</v>
+      </c>
+      <c r="M399" t="n">
+        <v>2</v>
+      </c>
+      <c r="N399" t="n">
+        <v>3</v>
+      </c>
+      <c r="O399" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P399" t="inlineStr">
+        <is>
+          <t>['45', '58']</t>
+        </is>
+      </c>
+      <c r="Q399" t="n">
+        <v>4</v>
+      </c>
+      <c r="R399" t="n">
+        <v>2</v>
+      </c>
+      <c r="S399" t="n">
+        <v>6</v>
+      </c>
+      <c r="T399" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U399" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V399" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W399" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X399" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y399" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Z399" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA399" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB399" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC399" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AD399" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE399" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AF399" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG399" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH399" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI399" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ399" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK399" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL399" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AM399" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN399" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO399" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP399" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ399" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR399" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS399" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT399" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AU399" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AV399" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW399" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AX399" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AY399" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ399" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BA399" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB399" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BC399" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD399" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE399" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BF399" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG399" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH399" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI399" t="n">
+        <v>15</v>
+      </c>
+      <c r="BJ399" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK399" t="n">
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK399"/>
+  <dimension ref="A1:BK404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,7 +1309,7 @@
         <v>1.67</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT6" t="n">
         <v>1</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT8" t="n">
         <v>0.89</v>
@@ -2324,7 +2324,7 @@
         <v>1.61</v>
       </c>
       <c r="AT9" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2527,7 +2527,7 @@
         <v>1.44</v>
       </c>
       <c r="AT10" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -2727,7 +2727,7 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT11" t="n">
         <v>1.37</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT12" t="n">
         <v>0.83</v>
@@ -3542,7 +3542,7 @@
         <v>1.61</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU15" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>1.61</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT22" t="n">
         <v>0.5600000000000001</v>
@@ -5569,7 +5569,7 @@
         <v>1</v>
       </c>
       <c r="AS25" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT25" t="n">
         <v>1</v>
@@ -5975,7 +5975,7 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT27" t="n">
         <v>0.82</v>
@@ -6181,7 +6181,7 @@
         <v>1.67</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU28" t="n">
         <v>1.73</v>
@@ -6587,7 +6587,7 @@
         <v>1.24</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU30" t="n">
         <v>1.33</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT32" t="n">
         <v>1.28</v>
@@ -7396,10 +7396,10 @@
         <v>1.5</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT34" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU34" t="n">
         <v>1.56</v>
@@ -8208,10 +8208,10 @@
         <v>1</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU38" t="n">
         <v>2.23</v>
@@ -9632,7 +9632,7 @@
         <v>1.44</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU45" t="n">
         <v>1.45</v>
@@ -9832,7 +9832,7 @@
         <v>0</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT46" t="n">
         <v>0.82</v>
@@ -10035,7 +10035,7 @@
         <v>2</v>
       </c>
       <c r="AS47" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT47" t="n">
         <v>1.28</v>
@@ -10241,7 +10241,7 @@
         <v>1.61</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU48" t="n">
         <v>1.2</v>
@@ -10441,7 +10441,7 @@
         <v>3</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT49" t="n">
         <v>1.37</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT52" t="n">
         <v>0.72</v>
@@ -11256,7 +11256,7 @@
         <v>1.67</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU53" t="n">
         <v>1.75</v>
@@ -11456,7 +11456,7 @@
         <v>0.5</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT54" t="n">
         <v>1</v>
@@ -11662,7 +11662,7 @@
         <v>1.89</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU55" t="n">
         <v>1.28</v>
@@ -13083,7 +13083,7 @@
         <v>1.61</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU62" t="n">
         <v>1.59</v>
@@ -14098,7 +14098,7 @@
         <v>1.83</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU67" t="n">
         <v>2.14</v>
@@ -15110,7 +15110,7 @@
         <v>0</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT72" t="n">
         <v>0.72</v>
@@ -15316,7 +15316,7 @@
         <v>1.61</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU73" t="n">
         <v>1.51</v>
@@ -15516,10 +15516,10 @@
         <v>2</v>
       </c>
       <c r="AS74" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU74" t="n">
         <v>1.21</v>
@@ -15925,7 +15925,7 @@
         <v>1.78</v>
       </c>
       <c r="AT76" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU76" t="n">
         <v>1.83</v>
@@ -16125,7 +16125,7 @@
         <v>2.33</v>
       </c>
       <c r="AS77" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT77" t="n">
         <v>1.28</v>
@@ -16328,7 +16328,7 @@
         <v>1</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT78" t="n">
         <v>0.89</v>
@@ -16534,7 +16534,7 @@
         <v>1.83</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU79" t="n">
         <v>2.1</v>
@@ -16737,7 +16737,7 @@
         <v>1.24</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU80" t="n">
         <v>1.3</v>
@@ -17143,7 +17143,7 @@
         <v>1.67</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU82" t="n">
         <v>1.59</v>
@@ -18358,7 +18358,7 @@
         <v>1.33</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT88" t="n">
         <v>0.5</v>
@@ -18967,7 +18967,7 @@
         <v>0.75</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT91" t="n">
         <v>0.89</v>
@@ -19373,7 +19373,7 @@
         <v>0.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT93" t="n">
         <v>0.5600000000000001</v>
@@ -19779,7 +19779,7 @@
         <v>0</v>
       </c>
       <c r="AS95" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT95" t="n">
         <v>0.82</v>
@@ -19985,7 +19985,7 @@
         <v>1.61</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU96" t="n">
         <v>1.59</v>
@@ -20594,7 +20594,7 @@
         <v>1.39</v>
       </c>
       <c r="AT99" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU99" t="n">
         <v>1.63</v>
@@ -21406,7 +21406,7 @@
         <v>1.68</v>
       </c>
       <c r="AT103" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU103" t="n">
         <v>1.53</v>
@@ -22418,7 +22418,7 @@
         <v>1.5</v>
       </c>
       <c r="AS108" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT108" t="n">
         <v>1.61</v>
@@ -22621,7 +22621,7 @@
         <v>0.5</v>
       </c>
       <c r="AS109" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT109" t="n">
         <v>1.44</v>
@@ -22827,7 +22827,7 @@
         <v>1.67</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU110" t="n">
         <v>1.62</v>
@@ -23030,7 +23030,7 @@
         <v>2.67</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU111" t="n">
         <v>1.3</v>
@@ -23636,7 +23636,7 @@
         <v>1.8</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT114" t="n">
         <v>1.61</v>
@@ -24045,7 +24045,7 @@
         <v>1.78</v>
       </c>
       <c r="AT116" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU116" t="n">
         <v>1.54</v>
@@ -24854,7 +24854,7 @@
         <v>0.8</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT120" t="n">
         <v>0.5600000000000001</v>
@@ -25669,7 +25669,7 @@
         <v>1.58</v>
       </c>
       <c r="AT124" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU124" t="n">
         <v>1.81</v>
@@ -25872,7 +25872,7 @@
         <v>2.17</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU125" t="n">
         <v>1.62</v>
@@ -26275,10 +26275,10 @@
         <v>1.2</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU127" t="n">
         <v>1.25</v>
@@ -26681,7 +26681,7 @@
         <v>1.4</v>
       </c>
       <c r="AS129" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT129" t="n">
         <v>1.17</v>
@@ -27290,7 +27290,7 @@
         <v>2</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT132" t="n">
         <v>1.44</v>
@@ -27496,7 +27496,7 @@
         <v>1.44</v>
       </c>
       <c r="AT133" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU133" t="n">
         <v>1.23</v>
@@ -28308,7 +28308,7 @@
         <v>2.17</v>
       </c>
       <c r="AT137" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU137" t="n">
         <v>1.57</v>
@@ -28914,7 +28914,7 @@
         <v>0.2</v>
       </c>
       <c r="AS140" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT140" t="n">
         <v>0.83</v>
@@ -29320,7 +29320,7 @@
         <v>0.67</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT142" t="n">
         <v>0.89</v>
@@ -29729,7 +29729,7 @@
         <v>1.83</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU144" t="n">
         <v>1.52</v>
@@ -29932,7 +29932,7 @@
         <v>1.61</v>
       </c>
       <c r="AT145" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU145" t="n">
         <v>1.61</v>
@@ -30132,7 +30132,7 @@
         <v>1</v>
       </c>
       <c r="AS146" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT146" t="n">
         <v>0.67</v>
@@ -30335,7 +30335,7 @@
         <v>1.17</v>
       </c>
       <c r="AS147" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT147" t="n">
         <v>1.17</v>
@@ -30741,7 +30741,7 @@
         <v>0.5</v>
       </c>
       <c r="AS149" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT149" t="n">
         <v>0.82</v>
@@ -30947,7 +30947,7 @@
         <v>1.58</v>
       </c>
       <c r="AT150" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU150" t="n">
         <v>1.66</v>
@@ -31553,10 +31553,10 @@
         <v>0.57</v>
       </c>
       <c r="AS153" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT153" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU153" t="n">
         <v>1.76</v>
@@ -31962,7 +31962,7 @@
         <v>2.67</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -33177,7 +33177,7 @@
         <v>0.33</v>
       </c>
       <c r="AS161" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT161" t="n">
         <v>0.83</v>
@@ -33586,7 +33586,7 @@
         <v>1.39</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33786,7 +33786,7 @@
         <v>1.14</v>
       </c>
       <c r="AS164" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT164" t="n">
         <v>1.44</v>
@@ -33992,7 +33992,7 @@
         <v>1.78</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU165" t="n">
         <v>1.58</v>
@@ -34192,7 +34192,7 @@
         <v>1.67</v>
       </c>
       <c r="AS166" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT166" t="n">
         <v>1.44</v>
@@ -34598,10 +34598,10 @@
         <v>0.86</v>
       </c>
       <c r="AS168" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT168" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU168" t="n">
         <v>1.44</v>
@@ -35210,7 +35210,7 @@
         <v>1.61</v>
       </c>
       <c r="AT171" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU171" t="n">
         <v>1.6</v>
@@ -36631,7 +36631,7 @@
         <v>1.89</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU178" t="n">
         <v>1.11</v>
@@ -37643,7 +37643,7 @@
         <v>0.63</v>
       </c>
       <c r="AS183" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT183" t="n">
         <v>0.72</v>
@@ -38252,10 +38252,10 @@
         <v>1.63</v>
       </c>
       <c r="AS186" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU186" t="n">
         <v>1.29</v>
@@ -38455,7 +38455,7 @@
         <v>1.13</v>
       </c>
       <c r="AS187" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT187" t="n">
         <v>1.44</v>
@@ -38658,10 +38658,10 @@
         <v>1.13</v>
       </c>
       <c r="AS188" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT188" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU188" t="n">
         <v>1.27</v>
@@ -38864,7 +38864,7 @@
         <v>1.83</v>
       </c>
       <c r="AT189" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU189" t="n">
         <v>1.88</v>
@@ -40691,7 +40691,7 @@
         <v>1.83</v>
       </c>
       <c r="AT198" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU198" t="n">
         <v>1.46</v>
@@ -40891,7 +40891,7 @@
         <v>1.63</v>
       </c>
       <c r="AS199" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT199" t="n">
         <v>1.17</v>
@@ -41706,7 +41706,7 @@
         <v>1.89</v>
       </c>
       <c r="AT203" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU203" t="n">
         <v>1.11</v>
@@ -41906,7 +41906,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS204" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT204" t="n">
         <v>0.89</v>
@@ -42515,10 +42515,10 @@
         <v>0.89</v>
       </c>
       <c r="AS207" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU207" t="n">
         <v>1.28</v>
@@ -42718,7 +42718,7 @@
         <v>1.22</v>
       </c>
       <c r="AS208" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT208" t="n">
         <v>1.05</v>
@@ -43936,10 +43936,10 @@
         <v>0.5</v>
       </c>
       <c r="AS214" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT214" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU214" t="n">
         <v>1.34</v>
@@ -44139,7 +44139,7 @@
         <v>0.89</v>
       </c>
       <c r="AS215" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT215" t="n">
         <v>0.5</v>
@@ -44548,7 +44548,7 @@
         <v>2.11</v>
       </c>
       <c r="AT217" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU217" t="n">
         <v>1.9</v>
@@ -45154,7 +45154,7 @@
         <v>1.33</v>
       </c>
       <c r="AS220" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT220" t="n">
         <v>1.37</v>
@@ -45360,7 +45360,7 @@
         <v>2.17</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU221" t="n">
         <v>1.53</v>
@@ -45563,7 +45563,7 @@
         <v>1.83</v>
       </c>
       <c r="AT222" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU222" t="n">
         <v>1.95</v>
@@ -45763,7 +45763,7 @@
         <v>0.6</v>
       </c>
       <c r="AS223" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT223" t="n">
         <v>0.89</v>
@@ -46372,7 +46372,7 @@
         <v>1.1</v>
       </c>
       <c r="AS226" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT226" t="n">
         <v>1.05</v>
@@ -46578,7 +46578,7 @@
         <v>1.44</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU227" t="n">
         <v>1.16</v>
@@ -47793,7 +47793,7 @@
         <v>0.8</v>
       </c>
       <c r="AS233" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT233" t="n">
         <v>0.89</v>
@@ -47999,7 +47999,7 @@
         <v>1.61</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU234" t="n">
         <v>1.7</v>
@@ -48405,7 +48405,7 @@
         <v>1.67</v>
       </c>
       <c r="AT236" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU236" t="n">
         <v>1.93</v>
@@ -49417,7 +49417,7 @@
         <v>1.27</v>
       </c>
       <c r="AS241" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT241" t="n">
         <v>1.05</v>
@@ -50229,7 +50229,7 @@
         <v>0.64</v>
       </c>
       <c r="AS245" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT245" t="n">
         <v>0.67</v>
@@ -50432,7 +50432,7 @@
         <v>1.82</v>
       </c>
       <c r="AS246" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT246" t="n">
         <v>1.61</v>
@@ -51044,7 +51044,7 @@
         <v>1.24</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU249" t="n">
         <v>1.55</v>
@@ -51450,7 +51450,7 @@
         <v>2.11</v>
       </c>
       <c r="AT251" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU251" t="n">
         <v>1.81</v>
@@ -51653,7 +51653,7 @@
         <v>1.61</v>
       </c>
       <c r="AT252" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU252" t="n">
         <v>1.36</v>
@@ -52259,7 +52259,7 @@
         <v>0.73</v>
       </c>
       <c r="AS255" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT255" t="n">
         <v>0.83</v>
@@ -52665,7 +52665,7 @@
         <v>1.18</v>
       </c>
       <c r="AS257" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT257" t="n">
         <v>1.44</v>
@@ -53277,7 +53277,7 @@
         <v>1.68</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU260" t="n">
         <v>1.4</v>
@@ -53477,7 +53477,7 @@
         <v>0.64</v>
       </c>
       <c r="AS261" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT261" t="n">
         <v>0.72</v>
@@ -53886,7 +53886,7 @@
         <v>1.89</v>
       </c>
       <c r="AT263" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU263" t="n">
         <v>1.11</v>
@@ -54086,7 +54086,7 @@
         <v>0.73</v>
       </c>
       <c r="AS264" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT264" t="n">
         <v>0.89</v>
@@ -54698,7 +54698,7 @@
         <v>2.67</v>
       </c>
       <c r="AT267" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU267" t="n">
         <v>1.66</v>
@@ -55304,7 +55304,7 @@
         <v>0.67</v>
       </c>
       <c r="AS270" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT270" t="n">
         <v>0.67</v>
@@ -56119,7 +56119,7 @@
         <v>1.61</v>
       </c>
       <c r="AT274" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU274" t="n">
         <v>1.63</v>
@@ -56319,7 +56319,7 @@
         <v>1.36</v>
       </c>
       <c r="AS275" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT275" t="n">
         <v>1.44</v>
@@ -56728,7 +56728,7 @@
         <v>1.39</v>
       </c>
       <c r="AT277" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU277" t="n">
         <v>1.54</v>
@@ -56931,7 +56931,7 @@
         <v>1.68</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU278" t="n">
         <v>1.39</v>
@@ -58146,7 +58146,7 @@
         <v>1.15</v>
       </c>
       <c r="AS284" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT284" t="n">
         <v>1.05</v>
@@ -58349,10 +58349,10 @@
         <v>1.58</v>
       </c>
       <c r="AS285" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU285" t="n">
         <v>1.72</v>
@@ -58552,7 +58552,7 @@
         <v>0.33</v>
       </c>
       <c r="AS286" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT286" t="n">
         <v>0.5600000000000001</v>
@@ -59570,7 +59570,7 @@
         <v>1.83</v>
       </c>
       <c r="AT291" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU291" t="n">
         <v>1.61</v>
@@ -59770,7 +59770,7 @@
         <v>0.62</v>
       </c>
       <c r="AS292" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT292" t="n">
         <v>0.5</v>
@@ -59976,7 +59976,7 @@
         <v>1.78</v>
       </c>
       <c r="AT293" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU293" t="n">
         <v>1.53</v>
@@ -60785,7 +60785,7 @@
         <v>0.85</v>
       </c>
       <c r="AS297" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT297" t="n">
         <v>0.83</v>
@@ -61191,10 +61191,10 @@
         <v>1.08</v>
       </c>
       <c r="AS299" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT299" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU299" t="n">
         <v>1.72</v>
@@ -61394,7 +61394,7 @@
         <v>1.23</v>
       </c>
       <c r="AS300" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT300" t="n">
         <v>1.44</v>
@@ -61597,10 +61597,10 @@
         <v>1.69</v>
       </c>
       <c r="AS301" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU301" t="n">
         <v>1.46</v>
@@ -62615,7 +62615,7 @@
         <v>1.67</v>
       </c>
       <c r="AT306" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU306" t="n">
         <v>1.8</v>
@@ -63833,7 +63833,7 @@
         <v>1.24</v>
       </c>
       <c r="AT312" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU312" t="n">
         <v>1.5</v>
@@ -64439,7 +64439,7 @@
         <v>0.64</v>
       </c>
       <c r="AS315" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT315" t="n">
         <v>0.67</v>
@@ -65048,7 +65048,7 @@
         <v>0.86</v>
       </c>
       <c r="AS318" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT318" t="n">
         <v>0.83</v>
@@ -65457,7 +65457,7 @@
         <v>2.67</v>
       </c>
       <c r="AT320" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU320" t="n">
         <v>1.61</v>
@@ -66066,7 +66066,7 @@
         <v>1.89</v>
       </c>
       <c r="AT323" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU323" t="n">
         <v>1.17</v>
@@ -66472,7 +66472,7 @@
         <v>1.67</v>
       </c>
       <c r="AT325" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU325" t="n">
         <v>1.61</v>
@@ -66878,7 +66878,7 @@
         <v>1.78</v>
       </c>
       <c r="AT327" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU327" t="n">
         <v>1.58</v>
@@ -67078,7 +67078,7 @@
         <v>1</v>
       </c>
       <c r="AS328" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT328" t="n">
         <v>1</v>
@@ -67484,7 +67484,7 @@
         <v>1.43</v>
       </c>
       <c r="AS330" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT330" t="n">
         <v>1.44</v>
@@ -68499,7 +68499,7 @@
         <v>0.93</v>
       </c>
       <c r="AS335" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT335" t="n">
         <v>0.89</v>
@@ -68702,10 +68702,10 @@
         <v>0.47</v>
       </c>
       <c r="AS336" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT336" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU336" t="n">
         <v>1.99</v>
@@ -69514,10 +69514,10 @@
         <v>0.87</v>
       </c>
       <c r="AS340" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT340" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU340" t="n">
         <v>1.72</v>
@@ -70126,7 +70126,7 @@
         <v>1.39</v>
       </c>
       <c r="AT343" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU343" t="n">
         <v>1.5</v>
@@ -70532,7 +70532,7 @@
         <v>1.68</v>
       </c>
       <c r="AT345" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU345" t="n">
         <v>1.38</v>
@@ -71138,7 +71138,7 @@
         <v>1.27</v>
       </c>
       <c r="AS348" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT348" t="n">
         <v>1.28</v>
@@ -71344,7 +71344,7 @@
         <v>1.61</v>
       </c>
       <c r="AT349" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU349" t="n">
         <v>1.3</v>
@@ -71950,7 +71950,7 @@
         <v>1.19</v>
       </c>
       <c r="AS352" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT352" t="n">
         <v>1.05</v>
@@ -72356,7 +72356,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS354" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT354" t="n">
         <v>0.5</v>
@@ -72559,7 +72559,7 @@
         <v>1.31</v>
       </c>
       <c r="AS355" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT355" t="n">
         <v>1.17</v>
@@ -72765,7 +72765,7 @@
         <v>1.24</v>
       </c>
       <c r="AT356" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU356" t="n">
         <v>1.46</v>
@@ -73171,7 +73171,7 @@
         <v>2.11</v>
       </c>
       <c r="AT358" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU358" t="n">
         <v>1.83</v>
@@ -73371,7 +73371,7 @@
         <v>0.73</v>
       </c>
       <c r="AS359" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT359" t="n">
         <v>0.83</v>
@@ -73780,7 +73780,7 @@
         <v>2.67</v>
       </c>
       <c r="AT361" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU361" t="n">
         <v>1.66</v>
@@ -74183,10 +74183,10 @@
         <v>0.75</v>
       </c>
       <c r="AS363" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT363" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU363" t="n">
         <v>1.99</v>
@@ -75807,7 +75807,7 @@
         <v>0.8100000000000001</v>
       </c>
       <c r="AS371" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT371" t="n">
         <v>0.83</v>
@@ -76013,7 +76013,7 @@
         <v>1.67</v>
       </c>
       <c r="AT372" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU372" t="n">
         <v>1.74</v>
@@ -76822,7 +76822,7 @@
         <v>0.71</v>
       </c>
       <c r="AS376" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="AT376" t="n">
         <v>0.72</v>
@@ -77028,7 +77028,7 @@
         <v>1.58</v>
       </c>
       <c r="AT377" t="n">
-        <v>0.61</v>
+        <v>0.74</v>
       </c>
       <c r="AU377" t="n">
         <v>1.6</v>
@@ -77431,10 +77431,10 @@
         <v>0.76</v>
       </c>
       <c r="AS379" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="AT379" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU379" t="n">
         <v>1.39</v>
@@ -78043,7 +78043,7 @@
         <v>2.11</v>
       </c>
       <c r="AT382" t="n">
-        <v>1.56</v>
+        <v>1.53</v>
       </c>
       <c r="AU382" t="n">
         <v>1.78</v>
@@ -78243,7 +78243,7 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS383" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AT383" t="n">
         <v>0.82</v>
@@ -78446,7 +78446,7 @@
         <v>0.75</v>
       </c>
       <c r="AS384" t="n">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="AT384" t="n">
         <v>0.83</v>
@@ -78649,10 +78649,10 @@
         <v>1</v>
       </c>
       <c r="AS385" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="AT385" t="n">
-        <v>1.11</v>
+        <v>1.21</v>
       </c>
       <c r="AU385" t="n">
         <v>2.01</v>
@@ -78855,7 +78855,7 @@
         <v>2.17</v>
       </c>
       <c r="AT386" t="n">
-        <v>1</v>
+        <v>1.11</v>
       </c>
       <c r="AU386" t="n">
         <v>1.68</v>
@@ -81546,6 +81546,1021 @@
       </c>
       <c r="BK399" t="n">
         <v>23</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" t="n">
+        <v>2604838</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E400" s="2" t="n">
+        <v>45038.46875</v>
+      </c>
+      <c r="F400" t="n">
+        <v>37</v>
+      </c>
+      <c r="G400" t="inlineStr">
+        <is>
+          <t>SD Ponferradina</t>
+        </is>
+      </c>
+      <c r="H400" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="I400" t="n">
+        <v>0</v>
+      </c>
+      <c r="J400" t="n">
+        <v>2</v>
+      </c>
+      <c r="K400" t="n">
+        <v>2</v>
+      </c>
+      <c r="L400" t="n">
+        <v>1</v>
+      </c>
+      <c r="M400" t="n">
+        <v>4</v>
+      </c>
+      <c r="N400" t="n">
+        <v>5</v>
+      </c>
+      <c r="O400" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="P400" t="inlineStr">
+        <is>
+          <t>['5', '28', '78', '88']</t>
+        </is>
+      </c>
+      <c r="Q400" t="n">
+        <v>1</v>
+      </c>
+      <c r="R400" t="n">
+        <v>3</v>
+      </c>
+      <c r="S400" t="n">
+        <v>4</v>
+      </c>
+      <c r="T400" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U400" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V400" t="n">
+        <v>3</v>
+      </c>
+      <c r="W400" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X400" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y400" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z400" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA400" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB400" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC400" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD400" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE400" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF400" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG400" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH400" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI400" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ400" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK400" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL400" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM400" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN400" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO400" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP400" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ400" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR400" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS400" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AT400" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU400" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV400" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AW400" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX400" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AY400" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ400" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BA400" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB400" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC400" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD400" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE400" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF400" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG400" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH400" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI400" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ400" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK400" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" t="n">
+        <v>2604833</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E401" s="2" t="n">
+        <v>45038.46875</v>
+      </c>
+      <c r="F401" t="n">
+        <v>37</v>
+      </c>
+      <c r="G401" t="inlineStr">
+        <is>
+          <t>FC Cartagena</t>
+        </is>
+      </c>
+      <c r="H401" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="I401" t="n">
+        <v>2</v>
+      </c>
+      <c r="J401" t="n">
+        <v>1</v>
+      </c>
+      <c r="K401" t="n">
+        <v>3</v>
+      </c>
+      <c r="L401" t="n">
+        <v>2</v>
+      </c>
+      <c r="M401" t="n">
+        <v>1</v>
+      </c>
+      <c r="N401" t="n">
+        <v>3</v>
+      </c>
+      <c r="O401" t="inlineStr">
+        <is>
+          <t>['31', '40']</t>
+        </is>
+      </c>
+      <c r="P401" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q401" t="n">
+        <v>2</v>
+      </c>
+      <c r="R401" t="n">
+        <v>1</v>
+      </c>
+      <c r="S401" t="n">
+        <v>3</v>
+      </c>
+      <c r="T401" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U401" t="n">
+        <v>2</v>
+      </c>
+      <c r="V401" t="n">
+        <v>4</v>
+      </c>
+      <c r="W401" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X401" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="Y401" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z401" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA401" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB401" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC401" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD401" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE401" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF401" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG401" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH401" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI401" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AJ401" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AK401" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL401" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM401" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN401" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AO401" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP401" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ401" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR401" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS401" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT401" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU401" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AV401" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AW401" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AX401" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AY401" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ401" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BA401" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB401" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC401" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD401" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BE401" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BF401" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG401" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH401" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI401" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ401" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK401" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B402" t="n">
+        <v>2604841</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E402" s="2" t="n">
+        <v>45038.5625</v>
+      </c>
+      <c r="F402" t="n">
+        <v>37</v>
+      </c>
+      <c r="G402" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="H402" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="I402" t="n">
+        <v>0</v>
+      </c>
+      <c r="J402" t="n">
+        <v>0</v>
+      </c>
+      <c r="K402" t="n">
+        <v>0</v>
+      </c>
+      <c r="L402" t="n">
+        <v>0</v>
+      </c>
+      <c r="M402" t="n">
+        <v>0</v>
+      </c>
+      <c r="N402" t="n">
+        <v>0</v>
+      </c>
+      <c r="O402" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P402" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q402" t="n">
+        <v>6</v>
+      </c>
+      <c r="R402" t="n">
+        <v>3</v>
+      </c>
+      <c r="S402" t="n">
+        <v>9</v>
+      </c>
+      <c r="T402" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="U402" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V402" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="W402" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X402" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y402" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z402" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA402" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB402" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC402" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD402" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AE402" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF402" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG402" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH402" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AI402" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AJ402" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK402" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL402" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AM402" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AN402" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO402" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP402" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ402" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR402" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AS402" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AT402" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AU402" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="AV402" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AW402" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AX402" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AY402" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="AZ402" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BA402" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB402" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC402" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD402" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="BE402" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF402" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG402" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH402" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI402" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ402" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK402" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B403" t="n">
+        <v>2604836</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E403" s="2" t="n">
+        <v>45038.66666666666</v>
+      </c>
+      <c r="F403" t="n">
+        <v>37</v>
+      </c>
+      <c r="G403" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="H403" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="I403" t="n">
+        <v>1</v>
+      </c>
+      <c r="J403" t="n">
+        <v>1</v>
+      </c>
+      <c r="K403" t="n">
+        <v>2</v>
+      </c>
+      <c r="L403" t="n">
+        <v>1</v>
+      </c>
+      <c r="M403" t="n">
+        <v>2</v>
+      </c>
+      <c r="N403" t="n">
+        <v>3</v>
+      </c>
+      <c r="O403" t="inlineStr">
+        <is>
+          <t>['32']</t>
+        </is>
+      </c>
+      <c r="P403" t="inlineStr">
+        <is>
+          <t>['17', '55']</t>
+        </is>
+      </c>
+      <c r="Q403" t="n">
+        <v>3</v>
+      </c>
+      <c r="R403" t="n">
+        <v>4</v>
+      </c>
+      <c r="S403" t="n">
+        <v>7</v>
+      </c>
+      <c r="T403" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="U403" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V403" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="W403" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="X403" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y403" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z403" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA403" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB403" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC403" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD403" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AE403" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AF403" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AG403" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH403" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AI403" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ403" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AK403" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AL403" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM403" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN403" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO403" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP403" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ403" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AR403" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS403" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT403" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AU403" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV403" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AW403" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX403" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY403" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AZ403" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA403" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB403" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC403" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BD403" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BE403" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF403" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG403" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH403" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI403" t="n">
+        <v>0</v>
+      </c>
+      <c r="BJ403" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK403" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B404" t="n">
+        <v>2604837</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E404" s="2" t="n">
+        <v>45039.375</v>
+      </c>
+      <c r="F404" t="n">
+        <v>37</v>
+      </c>
+      <c r="G404" t="inlineStr">
+        <is>
+          <t>CD Lugo</t>
+        </is>
+      </c>
+      <c r="H404" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="I404" t="n">
+        <v>0</v>
+      </c>
+      <c r="J404" t="n">
+        <v>2</v>
+      </c>
+      <c r="K404" t="n">
+        <v>2</v>
+      </c>
+      <c r="L404" t="n">
+        <v>0</v>
+      </c>
+      <c r="M404" t="n">
+        <v>2</v>
+      </c>
+      <c r="N404" t="n">
+        <v>2</v>
+      </c>
+      <c r="O404" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P404" t="inlineStr">
+        <is>
+          <t>['32', '34']</t>
+        </is>
+      </c>
+      <c r="Q404" t="n">
+        <v>4</v>
+      </c>
+      <c r="R404" t="n">
+        <v>7</v>
+      </c>
+      <c r="S404" t="n">
+        <v>11</v>
+      </c>
+      <c r="T404" t="n">
+        <v>4</v>
+      </c>
+      <c r="U404" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="V404" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W404" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X404" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y404" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z404" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA404" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB404" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC404" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AD404" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE404" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AF404" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AG404" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AH404" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI404" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ404" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK404" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL404" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM404" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN404" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AO404" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP404" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AQ404" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR404" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AS404" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="AT404" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AU404" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AV404" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW404" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX404" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="AY404" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ404" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BA404" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BB404" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BC404" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BD404" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BE404" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BF404" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG404" t="n">
+        <v>6</v>
+      </c>
+      <c r="BH404" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI404" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ404" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK404" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK404"/>
+  <dimension ref="A1:BK408"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1106,7 +1106,7 @@
         <v>2.11</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT4" t="n">
         <v>0.84</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT7" t="n">
         <v>0.89</v>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT14" t="n">
         <v>0.83</v>
@@ -3948,7 +3948,7 @@
         <v>1.78</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU17" t="n">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>1.44</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU19" t="n">
         <v>1.36</v>
@@ -4554,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT20" t="n">
         <v>1.44</v>
@@ -5775,7 +5775,7 @@
         <v>1.61</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU26" t="n">
         <v>1.57</v>
@@ -5978,7 +5978,7 @@
         <v>0.95</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT28" t="n">
         <v>0.74</v>
@@ -6384,7 +6384,7 @@
         <v>1.83</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU29" t="n">
         <v>1.62</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT30" t="n">
         <v>1.21</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT36" t="n">
         <v>1.61</v>
@@ -8617,7 +8617,7 @@
         <v>1.67</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -9223,7 +9223,7 @@
         <v>0</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT43" t="n">
         <v>0.5600000000000001</v>
@@ -9835,7 +9835,7 @@
         <v>1.79</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU46" t="n">
         <v>1.44</v>
@@ -11053,7 +11053,7 @@
         <v>1</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU52" t="n">
         <v>1.32</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT53" t="n">
         <v>1.11</v>
@@ -11659,7 +11659,7 @@
         <v>1.5</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT55" t="n">
         <v>0.74</v>
@@ -11865,7 +11865,7 @@
         <v>2.11</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU56" t="n">
         <v>1.69</v>
@@ -13286,7 +13286,7 @@
         <v>1.68</v>
       </c>
       <c r="AT63" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU63" t="n">
         <v>1.5</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT64" t="n">
         <v>0.67</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT65" t="n">
         <v>1.61</v>
@@ -14501,10 +14501,10 @@
         <v>0</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU69" t="n">
         <v>1.13</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -15113,7 +15113,7 @@
         <v>1.11</v>
       </c>
       <c r="AT72" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU72" t="n">
         <v>1.8</v>
@@ -16331,7 +16331,7 @@
         <v>1.79</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU78" t="n">
         <v>1.33</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT80" t="n">
         <v>0.74</v>
@@ -16937,7 +16937,7 @@
         <v>1.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT81" t="n">
         <v>1.61</v>
@@ -17346,7 +17346,7 @@
         <v>1.58</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU83" t="n">
         <v>1.79</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT84" t="n">
         <v>0.83</v>
@@ -18970,7 +18970,7 @@
         <v>1.11</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU91" t="n">
         <v>1.77</v>
@@ -19170,7 +19170,7 @@
         <v>1</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT92" t="n">
         <v>0.5</v>
@@ -19782,7 +19782,7 @@
         <v>1.58</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU95" t="n">
         <v>1.68</v>
@@ -20391,7 +20391,7 @@
         <v>1.78</v>
       </c>
       <c r="AT98" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU98" t="n">
         <v>1.72</v>
@@ -21203,7 +21203,7 @@
         <v>1.67</v>
       </c>
       <c r="AT102" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU102" t="n">
         <v>1.54</v>
@@ -21606,7 +21606,7 @@
         <v>2.25</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT104" t="n">
         <v>1.37</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT107" t="n">
         <v>1</v>
@@ -22824,7 +22824,7 @@
         <v>0.75</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT110" t="n">
         <v>1.53</v>
@@ -23839,7 +23839,7 @@
         <v>1.2</v>
       </c>
       <c r="AS115" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT115" t="n">
         <v>1.05</v>
@@ -24248,7 +24248,7 @@
         <v>1.83</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU117" t="n">
         <v>1.52</v>
@@ -25060,7 +25060,7 @@
         <v>1.83</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU121" t="n">
         <v>2.01</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT125" t="n">
         <v>0.84</v>
@@ -26072,7 +26072,7 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT126" t="n">
         <v>0.67</v>
@@ -26478,7 +26478,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT128" t="n">
         <v>0.83</v>
@@ -26684,7 +26684,7 @@
         <v>0.95</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU129" t="n">
         <v>1.23</v>
@@ -26887,7 +26887,7 @@
         <v>1.68</v>
       </c>
       <c r="AT130" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU130" t="n">
         <v>1.36</v>
@@ -28102,7 +28102,7 @@
         <v>2</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT136" t="n">
         <v>1.61</v>
@@ -28305,7 +28305,7 @@
         <v>1.2</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT137" t="n">
         <v>1.21</v>
@@ -29323,7 +29323,7 @@
         <v>1.58</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU142" t="n">
         <v>1.85</v>
@@ -30338,7 +30338,7 @@
         <v>1.79</v>
       </c>
       <c r="AT147" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU147" t="n">
         <v>1.64</v>
@@ -30538,7 +30538,7 @@
         <v>1.83</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT148" t="n">
         <v>1.28</v>
@@ -30744,7 +30744,7 @@
         <v>1</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU149" t="n">
         <v>1.3</v>
@@ -31350,10 +31350,10 @@
         <v>0.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT152" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU152" t="n">
         <v>1.78</v>
@@ -32162,7 +32162,7 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT156" t="n">
         <v>1</v>
@@ -32368,7 +32368,7 @@
         <v>1.61</v>
       </c>
       <c r="AT157" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU157" t="n">
         <v>1.33</v>
@@ -32771,7 +32771,7 @@
         <v>0.71</v>
       </c>
       <c r="AS159" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT159" t="n">
         <v>0.89</v>
@@ -33383,7 +33383,7 @@
         <v>1.44</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU162" t="n">
         <v>1.2</v>
@@ -34804,7 +34804,7 @@
         <v>1.61</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU169" t="n">
         <v>1.58</v>
@@ -36019,10 +36019,10 @@
         <v>1.43</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT175" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU175" t="n">
         <v>1.51</v>
@@ -36425,7 +36425,7 @@
         <v>1.57</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT177" t="n">
         <v>1.44</v>
@@ -36628,7 +36628,7 @@
         <v>0.88</v>
       </c>
       <c r="AS178" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT178" t="n">
         <v>0.84</v>
@@ -37034,7 +37034,7 @@
         <v>0.63</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT180" t="n">
         <v>0.89</v>
@@ -37646,7 +37646,7 @@
         <v>1.79</v>
       </c>
       <c r="AT183" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU183" t="n">
         <v>1.75</v>
@@ -38052,7 +38052,7 @@
         <v>1.68</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU185" t="n">
         <v>1.43</v>
@@ -39470,7 +39470,7 @@
         <v>1.5</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT192" t="n">
         <v>1.37</v>
@@ -39879,7 +39879,7 @@
         <v>1.58</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU194" t="n">
         <v>1.65</v>
@@ -40282,7 +40282,7 @@
         <v>0.63</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT196" t="n">
         <v>0.5</v>
@@ -40894,7 +40894,7 @@
         <v>1.11</v>
       </c>
       <c r="AT199" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU199" t="n">
         <v>1.42</v>
@@ -41703,7 +41703,7 @@
         <v>1.33</v>
       </c>
       <c r="AS203" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT203" t="n">
         <v>1.11</v>
@@ -43127,7 +43127,7 @@
         <v>1.39</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU210" t="n">
         <v>1.61</v>
@@ -43330,7 +43330,7 @@
         <v>1.58</v>
       </c>
       <c r="AT211" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU211" t="n">
         <v>1.56</v>
@@ -43533,7 +43533,7 @@
         <v>1.67</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU212" t="n">
         <v>1.94</v>
@@ -44751,7 +44751,7 @@
         <v>2.67</v>
       </c>
       <c r="AT218" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU218" t="n">
         <v>1.66</v>
@@ -44951,7 +44951,7 @@
         <v>0.44</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT219" t="n">
         <v>0.83</v>
@@ -45357,7 +45357,7 @@
         <v>1.56</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT221" t="n">
         <v>1.53</v>
@@ -45766,7 +45766,7 @@
         <v>0.95</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU223" t="n">
         <v>1.28</v>
@@ -45966,7 +45966,7 @@
         <v>0.9</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT224" t="n">
         <v>0.83</v>
@@ -48608,7 +48608,7 @@
         <v>1.39</v>
       </c>
       <c r="AT237" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU237" t="n">
         <v>1.55</v>
@@ -48808,10 +48808,10 @@
         <v>1.6</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT238" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU238" t="n">
         <v>1.5</v>
@@ -49823,7 +49823,7 @@
         <v>1.5</v>
       </c>
       <c r="AS243" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT243" t="n">
         <v>1.37</v>
@@ -51041,7 +51041,7 @@
         <v>1</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT249" t="n">
         <v>0.84</v>
@@ -51247,7 +51247,7 @@
         <v>1.83</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU250" t="n">
         <v>1.59</v>
@@ -51853,7 +51853,7 @@
         <v>0.73</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT253" t="n">
         <v>0.5</v>
@@ -52059,7 +52059,7 @@
         <v>1.78</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU254" t="n">
         <v>1.51</v>
@@ -52465,7 +52465,7 @@
         <v>1.39</v>
       </c>
       <c r="AT256" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU256" t="n">
         <v>1.58</v>
@@ -53071,7 +53071,7 @@
         <v>1.25</v>
       </c>
       <c r="AS259" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT259" t="n">
         <v>1.05</v>
@@ -53480,7 +53480,7 @@
         <v>1.58</v>
       </c>
       <c r="AT261" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU261" t="n">
         <v>1.79</v>
@@ -53883,7 +53883,7 @@
         <v>0.91</v>
       </c>
       <c r="AS263" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT263" t="n">
         <v>1.21</v>
@@ -54492,10 +54492,10 @@
         <v>0.83</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT266" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU266" t="n">
         <v>1.58</v>
@@ -54901,7 +54901,7 @@
         <v>2.11</v>
       </c>
       <c r="AT268" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU268" t="n">
         <v>1.83</v>
@@ -55507,7 +55507,7 @@
         <v>1.08</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT271" t="n">
         <v>1.28</v>
@@ -55713,7 +55713,7 @@
         <v>1.83</v>
       </c>
       <c r="AT272" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU272" t="n">
         <v>1.6</v>
@@ -57131,7 +57131,7 @@
         <v>0.67</v>
       </c>
       <c r="AS279" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT279" t="n">
         <v>0.83</v>
@@ -57537,7 +57537,7 @@
         <v>1.33</v>
       </c>
       <c r="AS281" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT281" t="n">
         <v>1.44</v>
@@ -57743,7 +57743,7 @@
         <v>1.58</v>
       </c>
       <c r="AT282" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU282" t="n">
         <v>1.51</v>
@@ -58961,7 +58961,7 @@
         <v>2.67</v>
       </c>
       <c r="AT288" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU288" t="n">
         <v>1.63</v>
@@ -59364,7 +59364,7 @@
         <v>1.08</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT290" t="n">
         <v>0.89</v>
@@ -60179,7 +60179,7 @@
         <v>1.44</v>
       </c>
       <c r="AT294" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU294" t="n">
         <v>1.2</v>
@@ -60988,10 +60988,10 @@
         <v>0.83</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU298" t="n">
         <v>1.57</v>
@@ -62206,10 +62206,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS304" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT304" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU304" t="n">
         <v>1.17</v>
@@ -62409,7 +62409,7 @@
         <v>0.38</v>
       </c>
       <c r="AS305" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT305" t="n">
         <v>0.5600000000000001</v>
@@ -63627,7 +63627,7 @@
         <v>1.46</v>
       </c>
       <c r="AS311" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT311" t="n">
         <v>1.44</v>
@@ -63830,7 +63830,7 @@
         <v>0.93</v>
       </c>
       <c r="AS312" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT312" t="n">
         <v>1.11</v>
@@ -64036,7 +64036,7 @@
         <v>1.61</v>
       </c>
       <c r="AT313" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU313" t="n">
         <v>1.64</v>
@@ -64236,10 +64236,10 @@
         <v>0.77</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT314" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU314" t="n">
         <v>1.67</v>
@@ -64645,7 +64645,7 @@
         <v>1.61</v>
       </c>
       <c r="AT316" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU316" t="n">
         <v>1.67</v>
@@ -65863,7 +65863,7 @@
         <v>1.61</v>
       </c>
       <c r="AT322" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU322" t="n">
         <v>1.3</v>
@@ -66063,7 +66063,7 @@
         <v>1.64</v>
       </c>
       <c r="AS323" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT323" t="n">
         <v>1.53</v>
@@ -66469,7 +66469,7 @@
         <v>1</v>
       </c>
       <c r="AS325" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT325" t="n">
         <v>1.21</v>
@@ -67893,7 +67893,7 @@
         <v>1.44</v>
       </c>
       <c r="AT332" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU332" t="n">
         <v>1.19</v>
@@ -68096,7 +68096,7 @@
         <v>2.11</v>
       </c>
       <c r="AT333" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU333" t="n">
         <v>1.84</v>
@@ -68296,7 +68296,7 @@
         <v>0.53</v>
       </c>
       <c r="AS334" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT334" t="n">
         <v>0.5</v>
@@ -68908,7 +68908,7 @@
         <v>1.61</v>
       </c>
       <c r="AT337" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU337" t="n">
         <v>1.68</v>
@@ -69920,7 +69920,7 @@
         <v>0.67</v>
       </c>
       <c r="AS342" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT342" t="n">
         <v>0.67</v>
@@ -70735,7 +70735,7 @@
         <v>1.78</v>
       </c>
       <c r="AT346" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU346" t="n">
         <v>1.59</v>
@@ -71544,7 +71544,7 @@
         <v>1</v>
       </c>
       <c r="AS350" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT350" t="n">
         <v>1</v>
@@ -72153,7 +72153,7 @@
         <v>1.47</v>
       </c>
       <c r="AS353" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT353" t="n">
         <v>1.44</v>
@@ -72562,7 +72562,7 @@
         <v>1</v>
       </c>
       <c r="AT355" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU355" t="n">
         <v>1.38</v>
@@ -72762,7 +72762,7 @@
         <v>1.5</v>
       </c>
       <c r="AS356" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT356" t="n">
         <v>1.53</v>
@@ -72965,10 +72965,10 @@
         <v>0.75</v>
       </c>
       <c r="AS357" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT357" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU357" t="n">
         <v>1.7</v>
@@ -74389,7 +74389,7 @@
         <v>1.39</v>
       </c>
       <c r="AT364" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU364" t="n">
         <v>1.49</v>
@@ -75604,7 +75604,7 @@
         <v>1.19</v>
       </c>
       <c r="AS370" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT370" t="n">
         <v>1.28</v>
@@ -76216,7 +76216,7 @@
         <v>1.61</v>
       </c>
       <c r="AT373" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU373" t="n">
         <v>1.6</v>
@@ -76416,7 +76416,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS374" t="n">
-        <v>1.67</v>
+        <v>1.74</v>
       </c>
       <c r="AT374" t="n">
         <v>0.5600000000000001</v>
@@ -76825,7 +76825,7 @@
         <v>0.95</v>
       </c>
       <c r="AT376" t="n">
-        <v>0.72</v>
+        <v>0.74</v>
       </c>
       <c r="AU376" t="n">
         <v>1.27</v>
@@ -77231,7 +77231,7 @@
         <v>1.61</v>
       </c>
       <c r="AT378" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU378" t="n">
         <v>1.61</v>
@@ -77634,7 +77634,7 @@
         <v>1.35</v>
       </c>
       <c r="AS380" t="n">
-        <v>1.24</v>
+        <v>1.33</v>
       </c>
       <c r="AT380" t="n">
         <v>1.37</v>
@@ -77837,10 +77837,10 @@
         <v>1.24</v>
       </c>
       <c r="AS381" t="n">
-        <v>1.89</v>
+        <v>1.84</v>
       </c>
       <c r="AT381" t="n">
-        <v>1.17</v>
+        <v>1.11</v>
       </c>
       <c r="AU381" t="n">
         <v>1.19</v>
@@ -78246,7 +78246,7 @@
         <v>1.11</v>
       </c>
       <c r="AT383" t="n">
-        <v>0.82</v>
+        <v>0.78</v>
       </c>
       <c r="AU383" t="n">
         <v>1.41</v>
@@ -78852,7 +78852,7 @@
         <v>1</v>
       </c>
       <c r="AS386" t="n">
-        <v>2.17</v>
+        <v>2.21</v>
       </c>
       <c r="AT386" t="n">
         <v>1.11</v>
@@ -82561,6 +82561,818 @@
       </c>
       <c r="BK404" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B405" t="n">
+        <v>2604840</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E405" s="2" t="n">
+        <v>45039.5625</v>
+      </c>
+      <c r="F405" t="n">
+        <v>37</v>
+      </c>
+      <c r="G405" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="H405" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="I405" t="n">
+        <v>0</v>
+      </c>
+      <c r="J405" t="n">
+        <v>0</v>
+      </c>
+      <c r="K405" t="n">
+        <v>0</v>
+      </c>
+      <c r="L405" t="n">
+        <v>1</v>
+      </c>
+      <c r="M405" t="n">
+        <v>0</v>
+      </c>
+      <c r="N405" t="n">
+        <v>1</v>
+      </c>
+      <c r="O405" t="inlineStr">
+        <is>
+          <t>['52']</t>
+        </is>
+      </c>
+      <c r="P405" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q405" t="n">
+        <v>8</v>
+      </c>
+      <c r="R405" t="n">
+        <v>4</v>
+      </c>
+      <c r="S405" t="n">
+        <v>12</v>
+      </c>
+      <c r="T405" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="U405" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="V405" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W405" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="X405" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y405" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z405" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AA405" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB405" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC405" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AD405" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="AE405" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AF405" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG405" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH405" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI405" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ405" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK405" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AL405" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AM405" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AN405" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AO405" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP405" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AQ405" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AR405" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS405" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT405" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU405" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV405" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW405" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX405" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AY405" t="n">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AZ405" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BA405" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BB405" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BC405" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BD405" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BE405" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BF405" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG405" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH405" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI405" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ405" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK405" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B406" t="n">
+        <v>2604839</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E406" s="2" t="n">
+        <v>45039.5625</v>
+      </c>
+      <c r="F406" t="n">
+        <v>37</v>
+      </c>
+      <c r="G406" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="H406" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="I406" t="n">
+        <v>0</v>
+      </c>
+      <c r="J406" t="n">
+        <v>0</v>
+      </c>
+      <c r="K406" t="n">
+        <v>0</v>
+      </c>
+      <c r="L406" t="n">
+        <v>2</v>
+      </c>
+      <c r="M406" t="n">
+        <v>1</v>
+      </c>
+      <c r="N406" t="n">
+        <v>3</v>
+      </c>
+      <c r="O406" t="inlineStr">
+        <is>
+          <t>['50', '59']</t>
+        </is>
+      </c>
+      <c r="P406" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="Q406" t="n">
+        <v>2</v>
+      </c>
+      <c r="R406" t="n">
+        <v>1</v>
+      </c>
+      <c r="S406" t="n">
+        <v>3</v>
+      </c>
+      <c r="T406" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U406" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V406" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W406" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X406" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y406" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z406" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA406" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB406" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC406" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AD406" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AE406" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF406" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG406" t="n">
+        <v>6.75</v>
+      </c>
+      <c r="AH406" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI406" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ406" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AK406" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AL406" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AM406" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN406" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO406" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP406" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AQ406" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR406" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AS406" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AT406" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AU406" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV406" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW406" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX406" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY406" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ406" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="BA406" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB406" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC406" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD406" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE406" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF406" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG406" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH406" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI406" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ406" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK406" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B407" t="n">
+        <v>2604832</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E407" s="2" t="n">
+        <v>45039.66666666666</v>
+      </c>
+      <c r="F407" t="n">
+        <v>37</v>
+      </c>
+      <c r="G407" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="H407" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="I407" t="n">
+        <v>1</v>
+      </c>
+      <c r="J407" t="n">
+        <v>0</v>
+      </c>
+      <c r="K407" t="n">
+        <v>1</v>
+      </c>
+      <c r="L407" t="n">
+        <v>2</v>
+      </c>
+      <c r="M407" t="n">
+        <v>1</v>
+      </c>
+      <c r="N407" t="n">
+        <v>3</v>
+      </c>
+      <c r="O407" t="inlineStr">
+        <is>
+          <t>['40', '83']</t>
+        </is>
+      </c>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q407" t="n">
+        <v>6</v>
+      </c>
+      <c r="R407" t="n">
+        <v>0</v>
+      </c>
+      <c r="S407" t="n">
+        <v>6</v>
+      </c>
+      <c r="T407" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U407" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V407" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="W407" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X407" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y407" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Z407" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA407" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB407" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC407" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AD407" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE407" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="AF407" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG407" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH407" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI407" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ407" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK407" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL407" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AM407" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AN407" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO407" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AP407" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AQ407" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AR407" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AS407" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AT407" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="AU407" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AV407" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AW407" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AX407" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AY407" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ407" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="BA407" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB407" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC407" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD407" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE407" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="BF407" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG407" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH407" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI407" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ407" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK407" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B408" t="n">
+        <v>2604835</v>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D408" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E408" s="2" t="n">
+        <v>45040.66666666666</v>
+      </c>
+      <c r="F408" t="n">
+        <v>37</v>
+      </c>
+      <c r="G408" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="H408" t="inlineStr">
+        <is>
+          <t>CD Tenerife</t>
+        </is>
+      </c>
+      <c r="I408" t="n">
+        <v>1</v>
+      </c>
+      <c r="J408" t="n">
+        <v>0</v>
+      </c>
+      <c r="K408" t="n">
+        <v>1</v>
+      </c>
+      <c r="L408" t="n">
+        <v>1</v>
+      </c>
+      <c r="M408" t="n">
+        <v>1</v>
+      </c>
+      <c r="N408" t="n">
+        <v>2</v>
+      </c>
+      <c r="O408" t="inlineStr">
+        <is>
+          <t>['33']</t>
+        </is>
+      </c>
+      <c r="P408" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="Q408" t="n">
+        <v>3</v>
+      </c>
+      <c r="R408" t="n">
+        <v>7</v>
+      </c>
+      <c r="S408" t="n">
+        <v>10</v>
+      </c>
+      <c r="T408" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="U408" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V408" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="W408" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X408" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Y408" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z408" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA408" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB408" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC408" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AD408" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AE408" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AF408" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG408" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH408" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AI408" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ408" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AK408" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL408" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM408" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AN408" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AO408" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP408" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AQ408" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR408" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AS408" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AT408" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AU408" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AV408" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AW408" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX408" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AY408" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AZ408" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BA408" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BB408" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BC408" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BD408" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE408" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF408" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG408" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH408" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI408" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ408" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK408" t="n">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK408"/>
+  <dimension ref="A1:BK409"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT7" t="n">
         <v>0.89</v>
@@ -4963,7 +4963,7 @@
         <v>1.11</v>
       </c>
       <c r="AT22" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT30" t="n">
         <v>1.21</v>
@@ -9226,7 +9226,7 @@
         <v>1.84</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU43" t="n">
         <v>1.22</v>
@@ -12474,7 +12474,7 @@
         <v>1.44</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU59" t="n">
         <v>1.2</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT65" t="n">
         <v>1.61</v>
@@ -14301,7 +14301,7 @@
         <v>1.61</v>
       </c>
       <c r="AT68" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU68" t="n">
         <v>1.66</v>
@@ -16734,7 +16734,7 @@
         <v>0.75</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT80" t="n">
         <v>0.74</v>
@@ -19376,7 +19376,7 @@
         <v>1.79</v>
       </c>
       <c r="AT93" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU93" t="n">
         <v>1.21</v>
@@ -22215,7 +22215,7 @@
         <v>1</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT107" t="n">
         <v>1</v>
@@ -24857,7 +24857,7 @@
         <v>1.58</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU120" t="n">
         <v>1.79</v>
@@ -26478,7 +26478,7 @@
         <v>1.4</v>
       </c>
       <c r="AS128" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT128" t="n">
         <v>0.83</v>
@@ -28714,7 +28714,7 @@
         <v>1.61</v>
       </c>
       <c r="AT139" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU139" t="n">
         <v>1.36</v>
@@ -30538,7 +30538,7 @@
         <v>1.83</v>
       </c>
       <c r="AS148" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT148" t="n">
         <v>1.28</v>
@@ -35413,7 +35413,7 @@
         <v>1.58</v>
       </c>
       <c r="AT172" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU172" t="n">
         <v>1.62</v>
@@ -36019,7 +36019,7 @@
         <v>1.43</v>
       </c>
       <c r="AS175" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT175" t="n">
         <v>1.11</v>
@@ -39270,7 +39270,7 @@
         <v>1.61</v>
       </c>
       <c r="AT191" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU191" t="n">
         <v>1.74</v>
@@ -40282,7 +40282,7 @@
         <v>0.63</v>
       </c>
       <c r="AS196" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT196" t="n">
         <v>0.5</v>
@@ -44951,7 +44951,7 @@
         <v>0.44</v>
       </c>
       <c r="AS219" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT219" t="n">
         <v>0.83</v>
@@ -46781,7 +46781,7 @@
         <v>1.78</v>
       </c>
       <c r="AT228" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU228" t="n">
         <v>1.52</v>
@@ -49623,7 +49623,7 @@
         <v>2.11</v>
       </c>
       <c r="AT242" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU242" t="n">
         <v>1.84</v>
@@ -51041,7 +51041,7 @@
         <v>1</v>
       </c>
       <c r="AS249" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT249" t="n">
         <v>0.84</v>
@@ -52871,7 +52871,7 @@
         <v>2.67</v>
       </c>
       <c r="AT258" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU258" t="n">
         <v>1.69</v>
@@ -54492,7 +54492,7 @@
         <v>0.83</v>
       </c>
       <c r="AS266" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT266" t="n">
         <v>0.74</v>
@@ -58555,7 +58555,7 @@
         <v>0.95</v>
       </c>
       <c r="AT286" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU286" t="n">
         <v>1.25</v>
@@ -60988,7 +60988,7 @@
         <v>0.83</v>
       </c>
       <c r="AS298" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT298" t="n">
         <v>0.78</v>
@@ -62412,7 +62412,7 @@
         <v>2.21</v>
       </c>
       <c r="AT305" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU305" t="n">
         <v>1.67</v>
@@ -63830,7 +63830,7 @@
         <v>0.93</v>
       </c>
       <c r="AS312" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT312" t="n">
         <v>1.11</v>
@@ -66675,7 +66675,7 @@
         <v>1.68</v>
       </c>
       <c r="AT326" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU326" t="n">
         <v>1.33</v>
@@ -69920,7 +69920,7 @@
         <v>0.67</v>
       </c>
       <c r="AS342" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT342" t="n">
         <v>0.67</v>
@@ -70329,7 +70329,7 @@
         <v>1.67</v>
       </c>
       <c r="AT344" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU344" t="n">
         <v>1.69</v>
@@ -72762,7 +72762,7 @@
         <v>1.5</v>
       </c>
       <c r="AS356" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT356" t="n">
         <v>1.53</v>
@@ -76419,7 +76419,7 @@
         <v>1.74</v>
       </c>
       <c r="AT374" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU374" t="n">
         <v>1.58</v>
@@ -77634,7 +77634,7 @@
         <v>1.35</v>
       </c>
       <c r="AS380" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT380" t="n">
         <v>1.37</v>
@@ -80682,7 +80682,7 @@
         <v>1.83</v>
       </c>
       <c r="AT395" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.53</v>
       </c>
       <c r="AU395" t="n">
         <v>1.78</v>
@@ -82709,7 +82709,7 @@
         <v>0.89</v>
       </c>
       <c r="AS405" t="n">
-        <v>1.33</v>
+        <v>1.42</v>
       </c>
       <c r="AT405" t="n">
         <v>0.84</v>
@@ -83373,6 +83373,209 @@
       </c>
       <c r="BK408" t="n">
         <v>14</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B409" t="n">
+        <v>2604850</v>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D409" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E409" s="2" t="n">
+        <v>45044.66666666666</v>
+      </c>
+      <c r="F409" t="n">
+        <v>38</v>
+      </c>
+      <c r="G409" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="H409" t="inlineStr">
+        <is>
+          <t>UD Ibiza</t>
+        </is>
+      </c>
+      <c r="I409" t="n">
+        <v>1</v>
+      </c>
+      <c r="J409" t="n">
+        <v>0</v>
+      </c>
+      <c r="K409" t="n">
+        <v>1</v>
+      </c>
+      <c r="L409" t="n">
+        <v>1</v>
+      </c>
+      <c r="M409" t="n">
+        <v>0</v>
+      </c>
+      <c r="N409" t="n">
+        <v>1</v>
+      </c>
+      <c r="O409" t="inlineStr">
+        <is>
+          <t>['30']</t>
+        </is>
+      </c>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q409" t="n">
+        <v>6</v>
+      </c>
+      <c r="R409" t="n">
+        <v>3</v>
+      </c>
+      <c r="S409" t="n">
+        <v>9</v>
+      </c>
+      <c r="T409" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="U409" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V409" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="W409" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X409" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y409" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z409" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AA409" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB409" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC409" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD409" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="AE409" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AF409" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG409" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH409" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI409" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ409" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AK409" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AL409" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AM409" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN409" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AO409" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP409" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ409" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR409" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AS409" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT409" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AU409" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AV409" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AW409" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="AX409" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY409" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ409" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BA409" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BB409" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BC409" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BD409" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BE409" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF409" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG409" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH409" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI409" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ409" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK409" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK413"/>
+  <dimension ref="A1:BK419"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.89</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>1.42</v>
       </c>
       <c r="AT7" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT9" t="n">
         <v>0.74</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT10" t="n">
         <v>1.11</v>
@@ -2933,7 +2933,7 @@
         <v>1.58</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3136,7 +3136,7 @@
         <v>1.58</v>
       </c>
       <c r="AT13" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU13" t="n">
         <v>0</v>
@@ -3539,7 +3539,7 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT15" t="n">
         <v>1.11</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT16" t="n">
         <v>1.53</v>
@@ -4148,7 +4148,7 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT18" t="n">
         <v>1.05</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT19" t="n">
         <v>0.74</v>
@@ -4760,7 +4760,7 @@
         <v>1.89</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU23" t="n">
         <v>0</v>
@@ -5369,7 +5369,7 @@
         <v>1.74</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU24" t="n">
         <v>1.64</v>
@@ -5772,7 +5772,7 @@
         <v>1</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT26" t="n">
         <v>1.11</v>
@@ -6790,7 +6790,7 @@
         <v>2.11</v>
       </c>
       <c r="AT31" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU31" t="n">
         <v>1.68</v>
@@ -7193,10 +7193,10 @@
         <v>3</v>
       </c>
       <c r="AS33" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT33" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU33" t="n">
         <v>1.36</v>
@@ -7602,7 +7602,7 @@
         <v>1.68</v>
       </c>
       <c r="AT35" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU35" t="n">
         <v>1.64</v>
@@ -7805,7 +7805,7 @@
         <v>2.21</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU36" t="n">
         <v>1.85</v>
@@ -8817,7 +8817,7 @@
         <v>3</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT41" t="n">
         <v>1.37</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT42" t="n">
         <v>1.42</v>
@@ -9426,10 +9426,10 @@
         <v>1</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT44" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU44" t="n">
         <v>1.55</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT45" t="n">
         <v>1.53</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT48" t="n">
         <v>1.21</v>
@@ -10647,7 +10647,7 @@
         <v>1.89</v>
       </c>
       <c r="AT50" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU50" t="n">
         <v>1.43</v>
@@ -10847,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="AS51" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT51" t="n">
         <v>1.05</v>
@@ -12271,7 +12271,7 @@
         <v>1.58</v>
       </c>
       <c r="AT58" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU58" t="n">
         <v>1.86</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT59" t="n">
         <v>0.53</v>
@@ -12677,7 +12677,7 @@
         <v>1.58</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU60" t="n">
         <v>1.16</v>
@@ -12877,7 +12877,7 @@
         <v>0</v>
       </c>
       <c r="AS61" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT61" t="n">
         <v>0.95</v>
@@ -13080,7 +13080,7 @@
         <v>2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT62" t="n">
         <v>0.84</v>
@@ -13489,7 +13489,7 @@
         <v>2.21</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -13692,7 +13692,7 @@
         <v>1.42</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU65" t="n">
         <v>1.3</v>
@@ -13895,7 +13895,7 @@
         <v>1.74</v>
       </c>
       <c r="AT66" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU66" t="n">
         <v>1.69</v>
@@ -14298,7 +14298,7 @@
         <v>1</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT68" t="n">
         <v>0.53</v>
@@ -14907,10 +14907,10 @@
         <v>1</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT71" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU71" t="n">
         <v>1.6</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT73" t="n">
         <v>1.53</v>
@@ -16940,7 +16940,7 @@
         <v>1.74</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU81" t="n">
         <v>1.66</v>
@@ -17549,7 +17549,7 @@
         <v>2.21</v>
       </c>
       <c r="AT84" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU84" t="n">
         <v>1.54</v>
@@ -17952,7 +17952,7 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT86" t="n">
         <v>1.42</v>
@@ -18155,10 +18155,10 @@
         <v>0.33</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -18361,7 +18361,7 @@
         <v>1</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU88" t="n">
         <v>1.3</v>
@@ -18561,10 +18561,10 @@
         <v>0.33</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT89" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU89" t="n">
         <v>1.57</v>
@@ -18764,10 +18764,10 @@
         <v>1</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT90" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU90" t="n">
         <v>1.53</v>
@@ -19173,7 +19173,7 @@
         <v>1.84</v>
       </c>
       <c r="AT92" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU92" t="n">
         <v>1.1</v>
@@ -19576,7 +19576,7 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT94" t="n">
         <v>1.21</v>
@@ -19982,7 +19982,7 @@
         <v>1.67</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT96" t="n">
         <v>1.21</v>
@@ -20591,7 +20591,7 @@
         <v>1</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT99" t="n">
         <v>1.11</v>
@@ -21000,7 +21000,7 @@
         <v>1.58</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU101" t="n">
         <v>1.65</v>
@@ -22012,10 +22012,10 @@
         <v>0.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU106" t="n">
         <v>1.23</v>
@@ -22421,7 +22421,7 @@
         <v>0.95</v>
       </c>
       <c r="AT108" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU108" t="n">
         <v>1.29</v>
@@ -22624,7 +22624,7 @@
         <v>1</v>
       </c>
       <c r="AT109" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU109" t="n">
         <v>1.37</v>
@@ -23027,7 +23027,7 @@
         <v>1.25</v>
       </c>
       <c r="AS111" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT111" t="n">
         <v>0.84</v>
@@ -23433,10 +23433,10 @@
         <v>0.8</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT113" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU113" t="n">
         <v>1.55</v>
@@ -23639,7 +23639,7 @@
         <v>1.11</v>
       </c>
       <c r="AT114" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU114" t="n">
         <v>1.62</v>
@@ -24448,7 +24448,7 @@
         <v>0.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT118" t="n">
         <v>0.95</v>
@@ -24651,10 +24651,10 @@
         <v>1</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT119" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU119" t="n">
         <v>1.49</v>
@@ -25260,10 +25260,10 @@
         <v>1</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT122" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU122" t="n">
         <v>1.51</v>
@@ -25463,7 +25463,7 @@
         <v>0.8</v>
       </c>
       <c r="AS123" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT123" t="n">
         <v>1</v>
@@ -26075,7 +26075,7 @@
         <v>1.74</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU126" t="n">
         <v>1.75</v>
@@ -26481,7 +26481,7 @@
         <v>1.42</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU128" t="n">
         <v>1.59</v>
@@ -27493,7 +27493,7 @@
         <v>0.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT133" t="n">
         <v>0.74</v>
@@ -27902,7 +27902,7 @@
         <v>1.58</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU135" t="n">
         <v>1.66</v>
@@ -28105,7 +28105,7 @@
         <v>1.84</v>
       </c>
       <c r="AT136" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU136" t="n">
         <v>1.19</v>
@@ -28711,7 +28711,7 @@
         <v>0.67</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT139" t="n">
         <v>0.53</v>
@@ -29117,10 +29117,10 @@
         <v>0.83</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU141" t="n">
         <v>1.54</v>
@@ -29526,7 +29526,7 @@
         <v>1.74</v>
       </c>
       <c r="AT143" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU143" t="n">
         <v>1.51</v>
@@ -29929,7 +29929,7 @@
         <v>0.86</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT145" t="n">
         <v>1.11</v>
@@ -30135,7 +30135,7 @@
         <v>1.11</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU146" t="n">
         <v>1.51</v>
@@ -31150,7 +31150,7 @@
         <v>2.11</v>
       </c>
       <c r="AT151" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU151" t="n">
         <v>1.95</v>
@@ -31756,7 +31756,7 @@
         <v>1.83</v>
       </c>
       <c r="AS154" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT154" t="n">
         <v>1.37</v>
@@ -31959,7 +31959,7 @@
         <v>1.5</v>
       </c>
       <c r="AS155" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT155" t="n">
         <v>1.53</v>
@@ -32365,7 +32365,7 @@
         <v>0.29</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT157" t="n">
         <v>0.74</v>
@@ -32774,7 +32774,7 @@
         <v>1.84</v>
       </c>
       <c r="AT159" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU159" t="n">
         <v>1.12</v>
@@ -32977,7 +32977,7 @@
         <v>1.68</v>
       </c>
       <c r="AT160" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU160" t="n">
         <v>1.42</v>
@@ -33380,7 +33380,7 @@
         <v>0.71</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT162" t="n">
         <v>0.84</v>
@@ -33583,7 +33583,7 @@
         <v>0.86</v>
       </c>
       <c r="AS163" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT163" t="n">
         <v>0.84</v>
@@ -33789,7 +33789,7 @@
         <v>1.79</v>
       </c>
       <c r="AT164" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU164" t="n">
         <v>1.73</v>
@@ -34395,7 +34395,7 @@
         <v>1.71</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT167" t="n">
         <v>1.37</v>
@@ -34801,7 +34801,7 @@
         <v>0.86</v>
       </c>
       <c r="AS169" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT169" t="n">
         <v>0.74</v>
@@ -35007,7 +35007,7 @@
         <v>1.89</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU170" t="n">
         <v>1.85</v>
@@ -35207,7 +35207,7 @@
         <v>0.5</v>
       </c>
       <c r="AS171" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT171" t="n">
         <v>0.74</v>
@@ -35616,7 +35616,7 @@
         <v>1.58</v>
       </c>
       <c r="AT173" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU173" t="n">
         <v>1.7</v>
@@ -36225,7 +36225,7 @@
         <v>1.89</v>
       </c>
       <c r="AT176" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU176" t="n">
         <v>1.48</v>
@@ -36831,10 +36831,10 @@
         <v>1</v>
       </c>
       <c r="AS179" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT179" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU179" t="n">
         <v>1.64</v>
@@ -37037,7 +37037,7 @@
         <v>2.21</v>
       </c>
       <c r="AT180" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU180" t="n">
         <v>1.52</v>
@@ -37440,7 +37440,7 @@
         <v>0.43</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT182" t="n">
         <v>0.95</v>
@@ -37846,7 +37846,7 @@
         <v>0.88</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT184" t="n">
         <v>1</v>
@@ -38458,7 +38458,7 @@
         <v>1.58</v>
       </c>
       <c r="AT187" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU187" t="n">
         <v>1.85</v>
@@ -39064,7 +39064,7 @@
         <v>1.63</v>
       </c>
       <c r="AS190" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT190" t="n">
         <v>1.21</v>
@@ -39267,7 +39267,7 @@
         <v>0.5</v>
       </c>
       <c r="AS191" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT191" t="n">
         <v>0.53</v>
@@ -39673,10 +39673,10 @@
         <v>1.63</v>
       </c>
       <c r="AS193" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT193" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU193" t="n">
         <v>1.67</v>
@@ -40285,7 +40285,7 @@
         <v>1.42</v>
       </c>
       <c r="AT196" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU196" t="n">
         <v>1.51</v>
@@ -40488,7 +40488,7 @@
         <v>2.11</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU197" t="n">
         <v>1.9</v>
@@ -41297,10 +41297,10 @@
         <v>1.78</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT201" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU201" t="n">
         <v>1.16</v>
@@ -41909,7 +41909,7 @@
         <v>1.58</v>
       </c>
       <c r="AT204" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU204" t="n">
         <v>1.85</v>
@@ -42312,10 +42312,10 @@
         <v>1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT206" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU206" t="n">
         <v>1.32</v>
@@ -42924,7 +42924,7 @@
         <v>1.89</v>
       </c>
       <c r="AT209" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU209" t="n">
         <v>1.5</v>
@@ -43124,7 +43124,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS210" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT210" t="n">
         <v>0.84</v>
@@ -43733,10 +43733,10 @@
         <v>0.67</v>
       </c>
       <c r="AS213" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU213" t="n">
         <v>1.74</v>
@@ -44142,7 +44142,7 @@
         <v>1.11</v>
       </c>
       <c r="AT215" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU215" t="n">
         <v>1.44</v>
@@ -44342,7 +44342,7 @@
         <v>1.56</v>
       </c>
       <c r="AS216" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT216" t="n">
         <v>1.42</v>
@@ -44748,7 +44748,7 @@
         <v>1.78</v>
       </c>
       <c r="AS218" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT218" t="n">
         <v>1.11</v>
@@ -45969,7 +45969,7 @@
         <v>1.74</v>
       </c>
       <c r="AT224" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU224" t="n">
         <v>1.69</v>
@@ -46172,7 +46172,7 @@
         <v>1.58</v>
       </c>
       <c r="AT225" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU225" t="n">
         <v>1.53</v>
@@ -46575,7 +46575,7 @@
         <v>1.1</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT227" t="n">
         <v>0.84</v>
@@ -46984,7 +46984,7 @@
         <v>1.89</v>
       </c>
       <c r="AT229" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU229" t="n">
         <v>1.57</v>
@@ -47184,10 +47184,10 @@
         <v>0.6</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU230" t="n">
         <v>1.28</v>
@@ -47387,7 +47387,7 @@
         <v>1.3</v>
       </c>
       <c r="AS231" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT231" t="n">
         <v>1.21</v>
@@ -47796,7 +47796,7 @@
         <v>1.11</v>
       </c>
       <c r="AT233" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU233" t="n">
         <v>1.42</v>
@@ -47996,7 +47996,7 @@
         <v>1.7</v>
       </c>
       <c r="AS234" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT234" t="n">
         <v>1.53</v>
@@ -48202,7 +48202,7 @@
         <v>1.68</v>
       </c>
       <c r="AT235" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU235" t="n">
         <v>1.4</v>
@@ -48605,7 +48605,7 @@
         <v>0.6</v>
       </c>
       <c r="AS237" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT237" t="n">
         <v>0.74</v>
@@ -49011,7 +49011,7 @@
         <v>1.5</v>
       </c>
       <c r="AS239" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT239" t="n">
         <v>1.42</v>
@@ -49214,7 +49214,7 @@
         <v>0.7</v>
       </c>
       <c r="AS240" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT240" t="n">
         <v>0.95</v>
@@ -50026,7 +50026,7 @@
         <v>1.18</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT244" t="n">
         <v>1.21</v>
@@ -50232,7 +50232,7 @@
         <v>1.58</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU245" t="n">
         <v>1.82</v>
@@ -50435,7 +50435,7 @@
         <v>1</v>
       </c>
       <c r="AT246" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU246" t="n">
         <v>1.3</v>
@@ -50841,7 +50841,7 @@
         <v>1.89</v>
       </c>
       <c r="AT248" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU248" t="n">
         <v>1.89</v>
@@ -51650,7 +51650,7 @@
         <v>1.18</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT252" t="n">
         <v>1.11</v>
@@ -51856,7 +51856,7 @@
         <v>1.74</v>
       </c>
       <c r="AT253" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU253" t="n">
         <v>1.65</v>
@@ -52462,7 +52462,7 @@
         <v>1.45</v>
       </c>
       <c r="AS256" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT256" t="n">
         <v>1.11</v>
@@ -52668,7 +52668,7 @@
         <v>1.11</v>
       </c>
       <c r="AT257" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU257" t="n">
         <v>1.46</v>
@@ -52868,7 +52868,7 @@
         <v>0.36</v>
       </c>
       <c r="AS258" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT258" t="n">
         <v>0.53</v>
@@ -53680,7 +53680,7 @@
         <v>1</v>
       </c>
       <c r="AS262" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT262" t="n">
         <v>1</v>
@@ -54089,7 +54089,7 @@
         <v>0.95</v>
       </c>
       <c r="AT264" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU264" t="n">
         <v>1.25</v>
@@ -54695,7 +54695,7 @@
         <v>1.08</v>
       </c>
       <c r="AS267" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT267" t="n">
         <v>1.11</v>
@@ -55101,10 +55101,10 @@
         <v>0.92</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT269" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU269" t="n">
         <v>1.14</v>
@@ -55307,7 +55307,7 @@
         <v>1.79</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU270" t="n">
         <v>1.88</v>
@@ -55916,7 +55916,7 @@
         <v>1.74</v>
       </c>
       <c r="AT273" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU273" t="n">
         <v>1.53</v>
@@ -56116,7 +56116,7 @@
         <v>0.5</v>
       </c>
       <c r="AS274" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT274" t="n">
         <v>0.74</v>
@@ -56522,10 +56522,10 @@
         <v>0.83</v>
       </c>
       <c r="AS276" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT276" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU276" t="n">
         <v>1.69</v>
@@ -56725,7 +56725,7 @@
         <v>0.92</v>
       </c>
       <c r="AS277" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT277" t="n">
         <v>1.21</v>
@@ -57540,7 +57540,7 @@
         <v>2.21</v>
       </c>
       <c r="AT281" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU281" t="n">
         <v>1.64</v>
@@ -58755,10 +58755,10 @@
         <v>1.92</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT287" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU287" t="n">
         <v>1.35</v>
@@ -58958,7 +58958,7 @@
         <v>0.85</v>
       </c>
       <c r="AS288" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT288" t="n">
         <v>0.74</v>
@@ -59161,7 +59161,7 @@
         <v>1.23</v>
       </c>
       <c r="AS289" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT289" t="n">
         <v>1.21</v>
@@ -59367,7 +59367,7 @@
         <v>1.74</v>
       </c>
       <c r="AT290" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU290" t="n">
         <v>1.59</v>
@@ -59773,7 +59773,7 @@
         <v>1.79</v>
       </c>
       <c r="AT292" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU292" t="n">
         <v>1.88</v>
@@ -60176,7 +60176,7 @@
         <v>1.31</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT294" t="n">
         <v>1.11</v>
@@ -60379,10 +60379,10 @@
         <v>0.62</v>
       </c>
       <c r="AS295" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT295" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU295" t="n">
         <v>1.6</v>
@@ -60788,7 +60788,7 @@
         <v>1</v>
       </c>
       <c r="AT297" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU297" t="n">
         <v>1.37</v>
@@ -61397,7 +61397,7 @@
         <v>0.95</v>
       </c>
       <c r="AT300" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU300" t="n">
         <v>1.29</v>
@@ -61803,7 +61803,7 @@
         <v>1.68</v>
       </c>
       <c r="AT302" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU302" t="n">
         <v>1.36</v>
@@ -62815,7 +62815,7 @@
         <v>1.46</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT307" t="n">
         <v>1.37</v>
@@ -63221,7 +63221,7 @@
         <v>1.07</v>
       </c>
       <c r="AS309" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT309" t="n">
         <v>1</v>
@@ -63427,7 +63427,7 @@
         <v>2.11</v>
       </c>
       <c r="AT310" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU310" t="n">
         <v>1.84</v>
@@ -64033,7 +64033,7 @@
         <v>0.79</v>
       </c>
       <c r="AS313" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT313" t="n">
         <v>0.74</v>
@@ -64442,7 +64442,7 @@
         <v>1</v>
       </c>
       <c r="AT315" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU315" t="n">
         <v>1.38</v>
@@ -64642,7 +64642,7 @@
         <v>1.43</v>
       </c>
       <c r="AS316" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT316" t="n">
         <v>1.11</v>
@@ -64848,7 +64848,7 @@
         <v>1.89</v>
       </c>
       <c r="AT317" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU317" t="n">
         <v>1.59</v>
@@ -65051,7 +65051,7 @@
         <v>1.79</v>
       </c>
       <c r="AT318" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU318" t="n">
         <v>1.94</v>
@@ -65251,7 +65251,7 @@
         <v>1.43</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT319" t="n">
         <v>1.37</v>
@@ -65454,7 +65454,7 @@
         <v>0.5</v>
       </c>
       <c r="AS320" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT320" t="n">
         <v>0.74</v>
@@ -65660,7 +65660,7 @@
         <v>1.58</v>
       </c>
       <c r="AT321" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU321" t="n">
         <v>1.77</v>
@@ -65860,7 +65860,7 @@
         <v>0.71</v>
       </c>
       <c r="AS322" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT322" t="n">
         <v>0.84</v>
@@ -66269,7 +66269,7 @@
         <v>1.89</v>
       </c>
       <c r="AT324" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU324" t="n">
         <v>1.8</v>
@@ -67281,7 +67281,7 @@
         <v>1.07</v>
       </c>
       <c r="AS329" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT329" t="n">
         <v>1.05</v>
@@ -67890,7 +67890,7 @@
         <v>0.73</v>
       </c>
       <c r="AS332" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT332" t="n">
         <v>0.74</v>
@@ -68299,7 +68299,7 @@
         <v>2.21</v>
       </c>
       <c r="AT334" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU334" t="n">
         <v>1.67</v>
@@ -68502,7 +68502,7 @@
         <v>1</v>
       </c>
       <c r="AT335" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU335" t="n">
         <v>1.43</v>
@@ -68905,7 +68905,7 @@
         <v>0.79</v>
       </c>
       <c r="AS337" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT337" t="n">
         <v>0.74</v>
@@ -69108,7 +69108,7 @@
         <v>0.57</v>
       </c>
       <c r="AS338" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT338" t="n">
         <v>0.95</v>
@@ -69717,10 +69717,10 @@
         <v>0.8</v>
       </c>
       <c r="AS341" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT341" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU341" t="n">
         <v>1.59</v>
@@ -69923,7 +69923,7 @@
         <v>1.42</v>
       </c>
       <c r="AT342" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU342" t="n">
         <v>1.49</v>
@@ -70123,7 +70123,7 @@
         <v>1.53</v>
       </c>
       <c r="AS343" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT343" t="n">
         <v>1.53</v>
@@ -70938,7 +70938,7 @@
         <v>1.89</v>
       </c>
       <c r="AT347" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU347" t="n">
         <v>1.78</v>
@@ -71341,7 +71341,7 @@
         <v>0.73</v>
       </c>
       <c r="AS349" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT349" t="n">
         <v>0.84</v>
@@ -72156,7 +72156,7 @@
         <v>1.74</v>
       </c>
       <c r="AT353" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU353" t="n">
         <v>1.59</v>
@@ -72359,7 +72359,7 @@
         <v>1.58</v>
       </c>
       <c r="AT354" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU354" t="n">
         <v>1.74</v>
@@ -73574,7 +73574,7 @@
         <v>1.38</v>
       </c>
       <c r="AS360" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT360" t="n">
         <v>1.37</v>
@@ -73777,7 +73777,7 @@
         <v>1.06</v>
       </c>
       <c r="AS361" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT361" t="n">
         <v>1.21</v>
@@ -73983,7 +73983,7 @@
         <v>1.58</v>
       </c>
       <c r="AT362" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU362" t="n">
         <v>1.59</v>
@@ -74386,7 +74386,7 @@
         <v>0.73</v>
       </c>
       <c r="AS364" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT364" t="n">
         <v>0.74</v>
@@ -74792,7 +74792,7 @@
         <v>1.18</v>
       </c>
       <c r="AS366" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT366" t="n">
         <v>1.05</v>
@@ -74998,7 +74998,7 @@
         <v>1.89</v>
       </c>
       <c r="AT367" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU367" t="n">
         <v>1.76</v>
@@ -75401,10 +75401,10 @@
         <v>1.56</v>
       </c>
       <c r="AS369" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT369" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU369" t="n">
         <v>1.2</v>
@@ -75810,7 +75810,7 @@
         <v>0.95</v>
       </c>
       <c r="AT371" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU371" t="n">
         <v>1.25</v>
@@ -76213,7 +76213,7 @@
         <v>1</v>
       </c>
       <c r="AS373" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT373" t="n">
         <v>0.84</v>
@@ -76622,7 +76622,7 @@
         <v>1.74</v>
       </c>
       <c r="AT375" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU375" t="n">
         <v>1.57</v>
@@ -77228,7 +77228,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS378" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT378" t="n">
         <v>0.84</v>
@@ -79058,7 +79058,7 @@
         <v>1.74</v>
       </c>
       <c r="AT387" t="n">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AU387" t="n">
         <v>1.58</v>
@@ -79258,10 +79258,10 @@
         <v>1.71</v>
       </c>
       <c r="AS388" t="n">
-        <v>2.67</v>
+        <v>2.58</v>
       </c>
       <c r="AT388" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AU388" t="n">
         <v>1.64</v>
@@ -79461,10 +79461,10 @@
         <v>0.53</v>
       </c>
       <c r="AS389" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="AT389" t="n">
-        <v>0.5</v>
+        <v>0.47</v>
       </c>
       <c r="AU389" t="n">
         <v>1.19</v>
@@ -79664,7 +79664,7 @@
         <v>1.11</v>
       </c>
       <c r="AS390" t="n">
-        <v>1.61</v>
+        <v>1.58</v>
       </c>
       <c r="AT390" t="n">
         <v>1.05</v>
@@ -79867,10 +79867,10 @@
         <v>0.82</v>
       </c>
       <c r="AS391" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT391" t="n">
-        <v>0.83</v>
+        <v>0.79</v>
       </c>
       <c r="AU391" t="n">
         <v>1.3</v>
@@ -80073,7 +80073,7 @@
         <v>1.58</v>
       </c>
       <c r="AT392" t="n">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="AU392" t="n">
         <v>1.72</v>
@@ -80273,7 +80273,7 @@
         <v>1.29</v>
       </c>
       <c r="AS393" t="n">
-        <v>1.61</v>
+        <v>1.68</v>
       </c>
       <c r="AT393" t="n">
         <v>1.21</v>
@@ -80476,7 +80476,7 @@
         <v>1.53</v>
       </c>
       <c r="AS394" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AT394" t="n">
         <v>1.42</v>
@@ -80885,7 +80885,7 @@
         <v>1.68</v>
       </c>
       <c r="AT396" t="n">
-        <v>0.89</v>
+        <v>0.84</v>
       </c>
       <c r="AU396" t="n">
         <v>1.33</v>
@@ -84249,13 +84249,13 @@
         </is>
       </c>
       <c r="Q413" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R413" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S413" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="T413" t="n">
         <v>2.45</v>
@@ -84372,10 +84372,10 @@
         <v>3.74</v>
       </c>
       <c r="BF413" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BG413" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BH413" t="n">
         <v>5</v>
@@ -84384,10 +84384,1228 @@
         <v>4</v>
       </c>
       <c r="BJ413" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK413" t="n">
         <v>9</v>
       </c>
-      <c r="BK413" t="n">
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B414" t="n">
+        <v>2604845</v>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D414" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E414" s="2" t="n">
+        <v>45046.46875</v>
+      </c>
+      <c r="F414" t="n">
+        <v>38</v>
+      </c>
+      <c r="G414" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="H414" t="inlineStr">
+        <is>
+          <t>SD Ponferradina</t>
+        </is>
+      </c>
+      <c r="I414" t="n">
+        <v>0</v>
+      </c>
+      <c r="J414" t="n">
+        <v>2</v>
+      </c>
+      <c r="K414" t="n">
+        <v>2</v>
+      </c>
+      <c r="L414" t="n">
+        <v>3</v>
+      </c>
+      <c r="M414" t="n">
+        <v>2</v>
+      </c>
+      <c r="N414" t="n">
+        <v>5</v>
+      </c>
+      <c r="O414" t="inlineStr">
+        <is>
+          <t>['49', '59', '64']</t>
+        </is>
+      </c>
+      <c r="P414" t="inlineStr">
+        <is>
+          <t>['11', '31']</t>
+        </is>
+      </c>
+      <c r="Q414" t="n">
+        <v>7</v>
+      </c>
+      <c r="R414" t="n">
+        <v>2</v>
+      </c>
+      <c r="S414" t="n">
+        <v>9</v>
+      </c>
+      <c r="T414" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U414" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V414" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W414" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="X414" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Y414" t="n">
+        <v>4</v>
+      </c>
+      <c r="Z414" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA414" t="n">
+        <v>12</v>
+      </c>
+      <c r="AB414" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC414" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AD414" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE414" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AF414" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG414" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="AH414" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AI414" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AJ414" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="AK414" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AL414" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AM414" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AN414" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AO414" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AP414" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ414" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AR414" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AS414" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT414" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="AU414" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV414" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW414" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX414" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY414" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ414" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BA414" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB414" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC414" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD414" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE414" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF414" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG414" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH414" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI414" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ414" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK414" t="n">
         <v>6</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B415" t="n">
+        <v>2604848</v>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D415" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E415" s="2" t="n">
+        <v>45046.5625</v>
+      </c>
+      <c r="F415" t="n">
+        <v>38</v>
+      </c>
+      <c r="G415" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="H415" t="inlineStr">
+        <is>
+          <t>SD Eibar</t>
+        </is>
+      </c>
+      <c r="I415" t="n">
+        <v>0</v>
+      </c>
+      <c r="J415" t="n">
+        <v>0</v>
+      </c>
+      <c r="K415" t="n">
+        <v>0</v>
+      </c>
+      <c r="L415" t="n">
+        <v>1</v>
+      </c>
+      <c r="M415" t="n">
+        <v>1</v>
+      </c>
+      <c r="N415" t="n">
+        <v>2</v>
+      </c>
+      <c r="O415" t="inlineStr">
+        <is>
+          <t>['71']</t>
+        </is>
+      </c>
+      <c r="P415" t="inlineStr">
+        <is>
+          <t>['60']</t>
+        </is>
+      </c>
+      <c r="Q415" t="n">
+        <v>1</v>
+      </c>
+      <c r="R415" t="n">
+        <v>4</v>
+      </c>
+      <c r="S415" t="n">
+        <v>5</v>
+      </c>
+      <c r="T415" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U415" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V415" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W415" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X415" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y415" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z415" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA415" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB415" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC415" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD415" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE415" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AF415" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG415" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH415" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI415" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AJ415" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK415" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL415" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM415" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN415" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO415" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP415" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ415" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AR415" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AS415" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="AT415" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU415" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV415" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AW415" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="AX415" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AY415" t="n">
+        <v>8.9</v>
+      </c>
+      <c r="AZ415" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BA415" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB415" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC415" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BD415" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BE415" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BF415" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG415" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH415" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI415" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ415" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK415" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B416" t="n">
+        <v>2604852</v>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D416" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E416" s="2" t="n">
+        <v>45046.66666666666</v>
+      </c>
+      <c r="F416" t="n">
+        <v>38</v>
+      </c>
+      <c r="G416" t="inlineStr">
+        <is>
+          <t>Real Zaragoza</t>
+        </is>
+      </c>
+      <c r="H416" t="inlineStr">
+        <is>
+          <t>UD Las Palmas</t>
+        </is>
+      </c>
+      <c r="I416" t="n">
+        <v>0</v>
+      </c>
+      <c r="J416" t="n">
+        <v>0</v>
+      </c>
+      <c r="K416" t="n">
+        <v>0</v>
+      </c>
+      <c r="L416" t="n">
+        <v>1</v>
+      </c>
+      <c r="M416" t="n">
+        <v>1</v>
+      </c>
+      <c r="N416" t="n">
+        <v>2</v>
+      </c>
+      <c r="O416" t="inlineStr">
+        <is>
+          <t>['58']</t>
+        </is>
+      </c>
+      <c r="P416" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q416" t="n">
+        <v>4</v>
+      </c>
+      <c r="R416" t="n">
+        <v>6</v>
+      </c>
+      <c r="S416" t="n">
+        <v>10</v>
+      </c>
+      <c r="T416" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U416" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V416" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W416" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X416" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y416" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z416" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA416" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB416" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC416" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AD416" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AE416" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AF416" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG416" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH416" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI416" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ416" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AK416" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL416" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM416" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AN416" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO416" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AP416" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ416" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR416" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AS416" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AT416" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AU416" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AV416" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AW416" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AX416" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AY416" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ416" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BA416" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB416" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC416" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BD416" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BE416" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF416" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG416" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH416" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI416" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ416" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK416" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B417" t="n">
+        <v>2604853</v>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D417" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E417" s="2" t="n">
+        <v>45047.46875</v>
+      </c>
+      <c r="F417" t="n">
+        <v>38</v>
+      </c>
+      <c r="G417" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="H417" t="inlineStr">
+        <is>
+          <t>CD Lugo</t>
+        </is>
+      </c>
+      <c r="I417" t="n">
+        <v>2</v>
+      </c>
+      <c r="J417" t="n">
+        <v>0</v>
+      </c>
+      <c r="K417" t="n">
+        <v>2</v>
+      </c>
+      <c r="L417" t="n">
+        <v>3</v>
+      </c>
+      <c r="M417" t="n">
+        <v>1</v>
+      </c>
+      <c r="N417" t="n">
+        <v>4</v>
+      </c>
+      <c r="O417" t="inlineStr">
+        <is>
+          <t>['15', '32', '53']</t>
+        </is>
+      </c>
+      <c r="P417" t="inlineStr">
+        <is>
+          <t>['79']</t>
+        </is>
+      </c>
+      <c r="Q417" t="n">
+        <v>7</v>
+      </c>
+      <c r="R417" t="n">
+        <v>6</v>
+      </c>
+      <c r="S417" t="n">
+        <v>13</v>
+      </c>
+      <c r="T417" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="U417" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="V417" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="W417" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="X417" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="Y417" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z417" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AA417" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB417" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC417" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AD417" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="AE417" t="n">
+        <v>6.85</v>
+      </c>
+      <c r="AF417" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG417" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH417" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI417" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ417" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK417" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL417" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AM417" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AN417" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO417" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AP417" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ417" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR417" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AS417" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT417" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="AU417" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AV417" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW417" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="AX417" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AY417" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="AZ417" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BA417" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BB417" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BC417" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BD417" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BE417" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BF417" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG417" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH417" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI417" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ417" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK417" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B418" t="n">
+        <v>2604849</v>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D418" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E418" s="2" t="n">
+        <v>45047.5625</v>
+      </c>
+      <c r="F418" t="n">
+        <v>38</v>
+      </c>
+      <c r="G418" t="inlineStr">
+        <is>
+          <t>Málaga CF</t>
+        </is>
+      </c>
+      <c r="H418" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="I418" t="n">
+        <v>0</v>
+      </c>
+      <c r="J418" t="n">
+        <v>0</v>
+      </c>
+      <c r="K418" t="n">
+        <v>0</v>
+      </c>
+      <c r="L418" t="n">
+        <v>0</v>
+      </c>
+      <c r="M418" t="n">
+        <v>0</v>
+      </c>
+      <c r="N418" t="n">
+        <v>0</v>
+      </c>
+      <c r="O418" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P418" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q418" t="n">
+        <v>4</v>
+      </c>
+      <c r="R418" t="n">
+        <v>1</v>
+      </c>
+      <c r="S418" t="n">
+        <v>5</v>
+      </c>
+      <c r="T418" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U418" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V418" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W418" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X418" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y418" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z418" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA418" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB418" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC418" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD418" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE418" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF418" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG418" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH418" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI418" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ418" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK418" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL418" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM418" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AN418" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO418" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP418" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AQ418" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AR418" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS418" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AT418" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AU418" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AV418" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AW418" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX418" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AY418" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ418" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BA418" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB418" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BC418" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD418" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE418" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="BF418" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG418" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH418" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI418" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ418" t="n">
+        <v>10</v>
+      </c>
+      <c r="BK418" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B419" t="n">
+        <v>2604844</v>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D419" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E419" s="2" t="n">
+        <v>45047.66666666666</v>
+      </c>
+      <c r="F419" t="n">
+        <v>38</v>
+      </c>
+      <c r="G419" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="H419" t="inlineStr">
+        <is>
+          <t>Villarreal II</t>
+        </is>
+      </c>
+      <c r="I419" t="n">
+        <v>1</v>
+      </c>
+      <c r="J419" t="n">
+        <v>0</v>
+      </c>
+      <c r="K419" t="n">
+        <v>1</v>
+      </c>
+      <c r="L419" t="n">
+        <v>1</v>
+      </c>
+      <c r="M419" t="n">
+        <v>0</v>
+      </c>
+      <c r="N419" t="n">
+        <v>1</v>
+      </c>
+      <c r="O419" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P419" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q419" t="n">
+        <v>8</v>
+      </c>
+      <c r="R419" t="n">
+        <v>7</v>
+      </c>
+      <c r="S419" t="n">
+        <v>15</v>
+      </c>
+      <c r="T419" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="U419" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V419" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="W419" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="X419" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Y419" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z419" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA419" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB419" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC419" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD419" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE419" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AF419" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG419" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH419" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI419" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ419" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AK419" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AL419" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM419" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AN419" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO419" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP419" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AQ419" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AR419" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AS419" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AT419" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AU419" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AV419" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AW419" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="AX419" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AY419" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ419" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BA419" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BB419" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BC419" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BD419" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BE419" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BF419" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG419" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH419" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI419" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ419" t="n">
+        <v>12</v>
+      </c>
+      <c r="BK419" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK419"/>
+  <dimension ref="A1:BK420"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>1</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -3336,7 +3336,7 @@
         <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT14" t="n">
         <v>0.95</v>
@@ -7802,7 +7802,7 @@
         <v>3</v>
       </c>
       <c r="AS36" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT36" t="n">
         <v>1.58</v>
@@ -8617,7 +8617,7 @@
         <v>1.58</v>
       </c>
       <c r="AT40" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU40" t="n">
         <v>0</v>
@@ -11865,7 +11865,7 @@
         <v>2.11</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU56" t="n">
         <v>1.69</v>
@@ -13486,7 +13486,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT64" t="n">
         <v>0.68</v>
@@ -16331,7 +16331,7 @@
         <v>1.79</v>
       </c>
       <c r="AT78" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU78" t="n">
         <v>1.33</v>
@@ -17546,7 +17546,7 @@
         <v>2</v>
       </c>
       <c r="AS84" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT84" t="n">
         <v>0.79</v>
@@ -18970,7 +18970,7 @@
         <v>1.11</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU91" t="n">
         <v>1.77</v>
@@ -21606,7 +21606,7 @@
         <v>2.25</v>
       </c>
       <c r="AS104" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT104" t="n">
         <v>1.37</v>
@@ -25060,7 +25060,7 @@
         <v>1.89</v>
       </c>
       <c r="AT121" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU121" t="n">
         <v>2.01</v>
@@ -25869,7 +25869,7 @@
         <v>1</v>
       </c>
       <c r="AS125" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT125" t="n">
         <v>0.84</v>
@@ -28305,7 +28305,7 @@
         <v>1.2</v>
       </c>
       <c r="AS137" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT137" t="n">
         <v>1.21</v>
@@ -29323,7 +29323,7 @@
         <v>1.58</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU142" t="n">
         <v>1.85</v>
@@ -32162,7 +32162,7 @@
         <v>1</v>
       </c>
       <c r="AS156" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT156" t="n">
         <v>1</v>
@@ -33383,7 +33383,7 @@
         <v>1.53</v>
       </c>
       <c r="AT162" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU162" t="n">
         <v>1.2</v>
@@ -37034,7 +37034,7 @@
         <v>0.63</v>
       </c>
       <c r="AS180" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT180" t="n">
         <v>0.84</v>
@@ -38052,7 +38052,7 @@
         <v>1.68</v>
       </c>
       <c r="AT185" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU185" t="n">
         <v>1.43</v>
@@ -43127,7 +43127,7 @@
         <v>1.37</v>
       </c>
       <c r="AT210" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU210" t="n">
         <v>1.61</v>
@@ -45357,7 +45357,7 @@
         <v>1.56</v>
       </c>
       <c r="AS221" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT221" t="n">
         <v>1.53</v>
@@ -45766,7 +45766,7 @@
         <v>0.95</v>
       </c>
       <c r="AT223" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU223" t="n">
         <v>1.28</v>
@@ -48808,7 +48808,7 @@
         <v>1.6</v>
       </c>
       <c r="AS238" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT238" t="n">
         <v>1.11</v>
@@ -51247,7 +51247,7 @@
         <v>1.89</v>
       </c>
       <c r="AT250" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU250" t="n">
         <v>1.59</v>
@@ -53071,7 +53071,7 @@
         <v>1.25</v>
       </c>
       <c r="AS259" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT259" t="n">
         <v>1.05</v>
@@ -57537,7 +57537,7 @@
         <v>1.33</v>
       </c>
       <c r="AS281" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT281" t="n">
         <v>1.42</v>
@@ -57743,7 +57743,7 @@
         <v>1.58</v>
       </c>
       <c r="AT282" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU282" t="n">
         <v>1.51</v>
@@ -62209,7 +62209,7 @@
         <v>1.84</v>
       </c>
       <c r="AT304" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU304" t="n">
         <v>1.17</v>
@@ -62409,7 +62409,7 @@
         <v>0.38</v>
       </c>
       <c r="AS305" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT305" t="n">
         <v>0.53</v>
@@ -63627,7 +63627,7 @@
         <v>1.46</v>
       </c>
       <c r="AS311" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT311" t="n">
         <v>1.42</v>
@@ -65863,7 +65863,7 @@
         <v>1.68</v>
       </c>
       <c r="AT322" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU322" t="n">
         <v>1.3</v>
@@ -68296,7 +68296,7 @@
         <v>0.53</v>
       </c>
       <c r="AS334" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT334" t="n">
         <v>0.47</v>
@@ -70735,7 +70735,7 @@
         <v>1.74</v>
       </c>
       <c r="AT346" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU346" t="n">
         <v>1.59</v>
@@ -72965,7 +72965,7 @@
         <v>0.75</v>
       </c>
       <c r="AS357" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT357" t="n">
         <v>0.74</v>
@@ -76216,7 +76216,7 @@
         <v>1.68</v>
       </c>
       <c r="AT373" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU373" t="n">
         <v>1.6</v>
@@ -77231,7 +77231,7 @@
         <v>1.58</v>
       </c>
       <c r="AT378" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU378" t="n">
         <v>1.61</v>
@@ -78852,7 +78852,7 @@
         <v>1</v>
       </c>
       <c r="AS386" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT386" t="n">
         <v>1.11</v>
@@ -82712,7 +82712,7 @@
         <v>1.42</v>
       </c>
       <c r="AT405" t="n">
-        <v>0.84</v>
+        <v>0.85</v>
       </c>
       <c r="AU405" t="n">
         <v>1.51</v>
@@ -83115,7 +83115,7 @@
         <v>0.82</v>
       </c>
       <c r="AS407" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="AT407" t="n">
         <v>0.74</v>
@@ -85606,6 +85606,209 @@
       </c>
       <c r="BK419" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B420" t="n">
+        <v>2604854</v>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D420" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E420" s="2" t="n">
+        <v>45051.66666666666</v>
+      </c>
+      <c r="F420" t="n">
+        <v>39</v>
+      </c>
+      <c r="G420" t="inlineStr">
+        <is>
+          <t>Deportivo Alavés</t>
+        </is>
+      </c>
+      <c r="H420" t="inlineStr">
+        <is>
+          <t>Granada CF</t>
+        </is>
+      </c>
+      <c r="I420" t="n">
+        <v>0</v>
+      </c>
+      <c r="J420" t="n">
+        <v>1</v>
+      </c>
+      <c r="K420" t="n">
+        <v>1</v>
+      </c>
+      <c r="L420" t="n">
+        <v>1</v>
+      </c>
+      <c r="M420" t="n">
+        <v>1</v>
+      </c>
+      <c r="N420" t="n">
+        <v>2</v>
+      </c>
+      <c r="O420" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="P420" t="inlineStr">
+        <is>
+          <t>['22']</t>
+        </is>
+      </c>
+      <c r="Q420" t="n">
+        <v>6</v>
+      </c>
+      <c r="R420" t="n">
+        <v>5</v>
+      </c>
+      <c r="S420" t="n">
+        <v>11</v>
+      </c>
+      <c r="T420" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="U420" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="V420" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="W420" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="X420" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="Y420" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z420" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA420" t="n">
+        <v>9.949999999999999</v>
+      </c>
+      <c r="AB420" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC420" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD420" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE420" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AF420" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AG420" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH420" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AI420" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AJ420" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AK420" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL420" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM420" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN420" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AO420" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AP420" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ420" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AR420" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AS420" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AT420" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU420" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AV420" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AW420" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="AX420" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AY420" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AZ420" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BA420" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB420" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC420" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD420" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE420" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF420" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG420" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH420" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI420" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ420" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK420" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK420"/>
+  <dimension ref="A1:BK424"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.89</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT5" t="n">
         <v>1.21</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT13" t="n">
         <v>1.42</v>
@@ -3745,7 +3745,7 @@
         <v>1.58</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU16" t="n">
         <v>0</v>
@@ -4757,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT21" t="n">
         <v>0.47</v>
@@ -5369,7 +5369,7 @@
         <v>1.74</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU24" t="n">
         <v>1.64</v>
@@ -6178,7 +6178,7 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT28" t="n">
         <v>0.74</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT35" t="n">
         <v>1.42</v>
@@ -8005,7 +8005,7 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT37" t="n">
         <v>0.95</v>
@@ -8211,7 +8211,7 @@
         <v>1.11</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU38" t="n">
         <v>2.23</v>
@@ -8411,7 +8411,7 @@
         <v>0</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT39" t="n">
         <v>1.05</v>
@@ -9632,7 +9632,7 @@
         <v>1.53</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU45" t="n">
         <v>1.45</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT53" t="n">
         <v>1.11</v>
@@ -12268,7 +12268,7 @@
         <v>2</v>
       </c>
       <c r="AS58" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT58" t="n">
         <v>0.47</v>
@@ -13083,7 +13083,7 @@
         <v>1.58</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU62" t="n">
         <v>1.59</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT63" t="n">
         <v>1.11</v>
@@ -13489,7 +13489,7 @@
         <v>2.15</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU64" t="n">
         <v>1.5</v>
@@ -14095,7 +14095,7 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT67" t="n">
         <v>0.74</v>
@@ -14704,7 +14704,7 @@
         <v>1.33</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT70" t="n">
         <v>1</v>
@@ -15316,7 +15316,7 @@
         <v>1.68</v>
       </c>
       <c r="AT73" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU73" t="n">
         <v>1.51</v>
@@ -16531,10 +16531,10 @@
         <v>1.33</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT79" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU79" t="n">
         <v>2.1</v>
@@ -16937,7 +16937,7 @@
         <v>1.67</v>
       </c>
       <c r="AS81" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT81" t="n">
         <v>1.58</v>
@@ -17143,7 +17143,7 @@
         <v>1.58</v>
       </c>
       <c r="AT82" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU82" t="n">
         <v>1.59</v>
@@ -17343,7 +17343,7 @@
         <v>1</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT83" t="n">
         <v>1.11</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT85" t="n">
         <v>1.37</v>
@@ -18158,7 +18158,7 @@
         <v>2.58</v>
       </c>
       <c r="AT87" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU87" t="n">
         <v>1.29</v>
@@ -20997,7 +20997,7 @@
         <v>1.5</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT101" t="n">
         <v>0.79</v>
@@ -21403,7 +21403,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT103" t="n">
         <v>0.74</v>
@@ -21809,7 +21809,7 @@
         <v>2.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT105" t="n">
         <v>1.42</v>
@@ -22015,7 +22015,7 @@
         <v>1.53</v>
       </c>
       <c r="AT106" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU106" t="n">
         <v>1.23</v>
@@ -22824,10 +22824,10 @@
         <v>0.75</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT110" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU110" t="n">
         <v>1.62</v>
@@ -23030,7 +23030,7 @@
         <v>2.58</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU111" t="n">
         <v>1.3</v>
@@ -25057,7 +25057,7 @@
         <v>0.8</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT121" t="n">
         <v>0.85</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT124" t="n">
         <v>1.11</v>
@@ -25872,7 +25872,7 @@
         <v>2.15</v>
       </c>
       <c r="AT125" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU125" t="n">
         <v>1.62</v>
@@ -26072,10 +26072,10 @@
         <v>1</v>
       </c>
       <c r="AS126" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU126" t="n">
         <v>1.75</v>
@@ -26278,7 +26278,7 @@
         <v>1</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU127" t="n">
         <v>1.25</v>
@@ -26884,7 +26884,7 @@
         <v>0.4</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT130" t="n">
         <v>0.74</v>
@@ -27696,7 +27696,7 @@
         <v>0.67</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT134" t="n">
         <v>1</v>
@@ -28508,7 +28508,7 @@
         <v>1.17</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT138" t="n">
         <v>1.05</v>
@@ -29729,7 +29729,7 @@
         <v>1.89</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU144" t="n">
         <v>1.52</v>
@@ -30135,7 +30135,7 @@
         <v>1.11</v>
       </c>
       <c r="AT146" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU146" t="n">
         <v>1.51</v>
@@ -30944,7 +30944,7 @@
         <v>1</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT150" t="n">
         <v>1.21</v>
@@ -31350,7 +31350,7 @@
         <v>0.33</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT152" t="n">
         <v>0.74</v>
@@ -31962,7 +31962,7 @@
         <v>2.58</v>
       </c>
       <c r="AT155" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU155" t="n">
         <v>1.43</v>
@@ -32974,7 +32974,7 @@
         <v>1.14</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT160" t="n">
         <v>0.79</v>
@@ -33586,7 +33586,7 @@
         <v>1.37</v>
       </c>
       <c r="AT163" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU163" t="n">
         <v>1.62</v>
@@ -33992,7 +33992,7 @@
         <v>1.74</v>
       </c>
       <c r="AT165" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU165" t="n">
         <v>1.58</v>
@@ -35004,10 +35004,10 @@
         <v>0.86</v>
       </c>
       <c r="AS170" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT170" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU170" t="n">
         <v>1.85</v>
@@ -35410,7 +35410,7 @@
         <v>0.57</v>
       </c>
       <c r="AS172" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT172" t="n">
         <v>0.53</v>
@@ -36425,7 +36425,7 @@
         <v>1.57</v>
       </c>
       <c r="AS177" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT177" t="n">
         <v>1.42</v>
@@ -36631,7 +36631,7 @@
         <v>1.84</v>
       </c>
       <c r="AT178" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU178" t="n">
         <v>1.11</v>
@@ -38049,7 +38049,7 @@
         <v>0.63</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT185" t="n">
         <v>0.85</v>
@@ -38255,7 +38255,7 @@
         <v>0.95</v>
       </c>
       <c r="AT186" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU186" t="n">
         <v>1.29</v>
@@ -38861,7 +38861,7 @@
         <v>0.88</v>
       </c>
       <c r="AS189" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT189" t="n">
         <v>1.21</v>
@@ -39470,7 +39470,7 @@
         <v>1.5</v>
       </c>
       <c r="AS192" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT192" t="n">
         <v>1.37</v>
@@ -39876,7 +39876,7 @@
         <v>0.88</v>
       </c>
       <c r="AS194" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT194" t="n">
         <v>0.74</v>
@@ -40488,7 +40488,7 @@
         <v>2.11</v>
       </c>
       <c r="AT197" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU197" t="n">
         <v>1.9</v>
@@ -41094,7 +41094,7 @@
         <v>0.38</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT200" t="n">
         <v>0.95</v>
@@ -42109,7 +42109,7 @@
         <v>1.44</v>
       </c>
       <c r="AS205" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT205" t="n">
         <v>1.21</v>
@@ -42518,7 +42518,7 @@
         <v>0.95</v>
       </c>
       <c r="AT207" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU207" t="n">
         <v>1.28</v>
@@ -43327,7 +43327,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS211" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT211" t="n">
         <v>0.74</v>
@@ -43736,7 +43736,7 @@
         <v>1.58</v>
       </c>
       <c r="AT213" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU213" t="n">
         <v>1.74</v>
@@ -45360,7 +45360,7 @@
         <v>2.15</v>
       </c>
       <c r="AT221" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU221" t="n">
         <v>1.53</v>
@@ -45560,7 +45560,7 @@
         <v>1.2</v>
       </c>
       <c r="AS222" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT222" t="n">
         <v>1.11</v>
@@ -45966,7 +45966,7 @@
         <v>0.9</v>
       </c>
       <c r="AS224" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT224" t="n">
         <v>0.79</v>
@@ -46169,7 +46169,7 @@
         <v>1.7</v>
       </c>
       <c r="AS225" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT225" t="n">
         <v>1.58</v>
@@ -46578,7 +46578,7 @@
         <v>1.53</v>
       </c>
       <c r="AT227" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU227" t="n">
         <v>1.16</v>
@@ -47187,7 +47187,7 @@
         <v>1.68</v>
       </c>
       <c r="AT230" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU230" t="n">
         <v>1.28</v>
@@ -47590,7 +47590,7 @@
         <v>0.9</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT232" t="n">
         <v>1</v>
@@ -47999,7 +47999,7 @@
         <v>1.68</v>
       </c>
       <c r="AT234" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU234" t="n">
         <v>1.7</v>
@@ -48199,7 +48199,7 @@
         <v>0.8</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT235" t="n">
         <v>0.47</v>
@@ -50232,7 +50232,7 @@
         <v>1.58</v>
       </c>
       <c r="AT245" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU245" t="n">
         <v>1.82</v>
@@ -50635,7 +50635,7 @@
         <v>0.82</v>
       </c>
       <c r="AS247" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT247" t="n">
         <v>1</v>
@@ -50838,7 +50838,7 @@
         <v>0.82</v>
       </c>
       <c r="AS248" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT248" t="n">
         <v>0.79</v>
@@ -51044,7 +51044,7 @@
         <v>1.42</v>
       </c>
       <c r="AT249" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU249" t="n">
         <v>1.55</v>
@@ -51853,7 +51853,7 @@
         <v>0.73</v>
       </c>
       <c r="AS253" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT253" t="n">
         <v>0.47</v>
@@ -53274,10 +53274,10 @@
         <v>1.64</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT260" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU260" t="n">
         <v>1.4</v>
@@ -55307,7 +55307,7 @@
         <v>1.79</v>
       </c>
       <c r="AT270" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU270" t="n">
         <v>1.88</v>
@@ -55507,7 +55507,7 @@
         <v>1.08</v>
       </c>
       <c r="AS271" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT271" t="n">
         <v>1.21</v>
@@ -56928,10 +56928,10 @@
         <v>0.92</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT278" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU278" t="n">
         <v>1.39</v>
@@ -57334,7 +57334,7 @@
         <v>1.58</v>
       </c>
       <c r="AS280" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT280" t="n">
         <v>1.37</v>
@@ -57740,7 +57740,7 @@
         <v>0.5</v>
       </c>
       <c r="AS282" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT282" t="n">
         <v>0.85</v>
@@ -58352,7 +58352,7 @@
         <v>1.58</v>
       </c>
       <c r="AT285" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU285" t="n">
         <v>1.72</v>
@@ -59364,7 +59364,7 @@
         <v>1.08</v>
       </c>
       <c r="AS290" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT290" t="n">
         <v>0.84</v>
@@ -60382,7 +60382,7 @@
         <v>1.68</v>
       </c>
       <c r="AT295" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU295" t="n">
         <v>1.6</v>
@@ -61600,7 +61600,7 @@
         <v>1.11</v>
       </c>
       <c r="AT301" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU301" t="n">
         <v>1.46</v>
@@ -61800,7 +61800,7 @@
         <v>1.85</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT302" t="n">
         <v>1.58</v>
@@ -62003,7 +62003,7 @@
         <v>0.62</v>
       </c>
       <c r="AS303" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT303" t="n">
         <v>0.95</v>
@@ -62615,7 +62615,7 @@
         <v>1.58</v>
       </c>
       <c r="AT306" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU306" t="n">
         <v>1.8</v>
@@ -63018,7 +63018,7 @@
         <v>1.14</v>
       </c>
       <c r="AS308" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT308" t="n">
         <v>1.05</v>
@@ -64236,7 +64236,7 @@
         <v>0.77</v>
       </c>
       <c r="AS314" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT314" t="n">
         <v>0.74</v>
@@ -64442,7 +64442,7 @@
         <v>1</v>
       </c>
       <c r="AT315" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU315" t="n">
         <v>1.38</v>
@@ -66066,7 +66066,7 @@
         <v>1.84</v>
       </c>
       <c r="AT323" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU323" t="n">
         <v>1.17</v>
@@ -66266,7 +66266,7 @@
         <v>1.36</v>
       </c>
       <c r="AS324" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT324" t="n">
         <v>1.42</v>
@@ -66469,7 +66469,7 @@
         <v>1</v>
       </c>
       <c r="AS325" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT325" t="n">
         <v>1.21</v>
@@ -66672,7 +66672,7 @@
         <v>0.36</v>
       </c>
       <c r="AS326" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT326" t="n">
         <v>0.53</v>
@@ -66878,7 +66878,7 @@
         <v>1.74</v>
       </c>
       <c r="AT327" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU327" t="n">
         <v>1.58</v>
@@ -67687,7 +67687,7 @@
         <v>1.36</v>
       </c>
       <c r="AS331" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT331" t="n">
         <v>1.21</v>
@@ -69923,7 +69923,7 @@
         <v>1.42</v>
       </c>
       <c r="AT342" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU342" t="n">
         <v>1.49</v>
@@ -70126,7 +70126,7 @@
         <v>1.37</v>
       </c>
       <c r="AT343" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU343" t="n">
         <v>1.5</v>
@@ -70529,7 +70529,7 @@
         <v>0.93</v>
       </c>
       <c r="AS345" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT345" t="n">
         <v>1.21</v>
@@ -70935,7 +70935,7 @@
         <v>1.73</v>
       </c>
       <c r="AS347" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT347" t="n">
         <v>1.58</v>
@@ -71344,7 +71344,7 @@
         <v>1.68</v>
       </c>
       <c r="AT349" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU349" t="n">
         <v>1.3</v>
@@ -71747,7 +71747,7 @@
         <v>1.53</v>
       </c>
       <c r="AS351" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT351" t="n">
         <v>1.42</v>
@@ -72153,7 +72153,7 @@
         <v>1.47</v>
       </c>
       <c r="AS353" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT353" t="n">
         <v>1.42</v>
@@ -72765,7 +72765,7 @@
         <v>1.42</v>
       </c>
       <c r="AT356" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU356" t="n">
         <v>1.46</v>
@@ -73980,10 +73980,10 @@
         <v>0.6899999999999999</v>
       </c>
       <c r="AS362" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT362" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU362" t="n">
         <v>1.59</v>
@@ -74186,7 +74186,7 @@
         <v>1.79</v>
       </c>
       <c r="AT363" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU363" t="n">
         <v>1.99</v>
@@ -74995,7 +74995,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS367" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT367" t="n">
         <v>0.84</v>
@@ -75198,7 +75198,7 @@
         <v>1.44</v>
       </c>
       <c r="AS368" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT368" t="n">
         <v>1.42</v>
@@ -76416,7 +76416,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS374" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT374" t="n">
         <v>0.53</v>
@@ -77025,7 +77025,7 @@
         <v>0.47</v>
       </c>
       <c r="AS377" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT377" t="n">
         <v>0.74</v>
@@ -77434,7 +77434,7 @@
         <v>1</v>
       </c>
       <c r="AT379" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU379" t="n">
         <v>1.39</v>
@@ -78043,7 +78043,7 @@
         <v>2.11</v>
       </c>
       <c r="AT382" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU382" t="n">
         <v>1.78</v>
@@ -80073,7 +80073,7 @@
         <v>1.58</v>
       </c>
       <c r="AT392" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU392" t="n">
         <v>1.72</v>
@@ -80679,7 +80679,7 @@
         <v>0.59</v>
       </c>
       <c r="AS395" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT395" t="n">
         <v>0.53</v>
@@ -80882,7 +80882,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS396" t="n">
-        <v>1.68</v>
+        <v>1.75</v>
       </c>
       <c r="AT396" t="n">
         <v>0.84</v>
@@ -81491,7 +81491,7 @@
         <v>1.28</v>
       </c>
       <c r="AS399" t="n">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT399" t="n">
         <v>1.37</v>
@@ -81900,7 +81900,7 @@
         <v>1.58</v>
       </c>
       <c r="AT401" t="n">
-        <v>0.84</v>
+        <v>0.8</v>
       </c>
       <c r="AU401" t="n">
         <v>1.68</v>
@@ -82103,7 +82103,7 @@
         <v>1.79</v>
       </c>
       <c r="AT402" t="n">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AU402" t="n">
         <v>2.01</v>
@@ -82912,7 +82912,7 @@
         <v>1.17</v>
       </c>
       <c r="AS406" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AT406" t="n">
         <v>1.11</v>
@@ -84130,7 +84130,7 @@
         <v>0.78</v>
       </c>
       <c r="AS412" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AT412" t="n">
         <v>0.74</v>
@@ -85351,7 +85351,7 @@
         <v>1.37</v>
       </c>
       <c r="AT418" t="n">
-        <v>0.68</v>
+        <v>0.65</v>
       </c>
       <c r="AU418" t="n">
         <v>1.46</v>
@@ -85808,6 +85808,818 @@
         <v>18</v>
       </c>
       <c r="BK420" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B421" t="n">
+        <v>2604856</v>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D421" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E421" s="2" t="n">
+        <v>45052.46875</v>
+      </c>
+      <c r="F421" t="n">
+        <v>39</v>
+      </c>
+      <c r="G421" t="inlineStr">
+        <is>
+          <t>Mirandés</t>
+        </is>
+      </c>
+      <c r="H421" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I421" t="n">
+        <v>1</v>
+      </c>
+      <c r="J421" t="n">
+        <v>1</v>
+      </c>
+      <c r="K421" t="n">
+        <v>2</v>
+      </c>
+      <c r="L421" t="n">
+        <v>1</v>
+      </c>
+      <c r="M421" t="n">
+        <v>1</v>
+      </c>
+      <c r="N421" t="n">
+        <v>2</v>
+      </c>
+      <c r="O421" t="inlineStr">
+        <is>
+          <t>['3']</t>
+        </is>
+      </c>
+      <c r="P421" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q421" t="n">
+        <v>13</v>
+      </c>
+      <c r="R421" t="n">
+        <v>1</v>
+      </c>
+      <c r="S421" t="n">
+        <v>14</v>
+      </c>
+      <c r="T421" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U421" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="V421" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="W421" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="X421" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y421" t="n">
+        <v>3</v>
+      </c>
+      <c r="Z421" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA421" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AB421" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC421" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AD421" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AE421" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AF421" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AG421" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AH421" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AI421" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ421" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK421" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL421" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM421" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN421" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AO421" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AP421" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ421" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AR421" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS421" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AT421" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AU421" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AV421" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW421" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX421" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY421" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ421" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA421" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BB421" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BC421" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BD421" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BE421" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BF421" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG421" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH421" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI421" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ421" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK421" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B422" t="n">
+        <v>2604861</v>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D422" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E422" s="2" t="n">
+        <v>45052.5625</v>
+      </c>
+      <c r="F422" t="n">
+        <v>39</v>
+      </c>
+      <c r="G422" t="inlineStr">
+        <is>
+          <t>CD Tenerife</t>
+        </is>
+      </c>
+      <c r="H422" t="inlineStr">
+        <is>
+          <t>Levante UD</t>
+        </is>
+      </c>
+      <c r="I422" t="n">
+        <v>0</v>
+      </c>
+      <c r="J422" t="n">
+        <v>0</v>
+      </c>
+      <c r="K422" t="n">
+        <v>0</v>
+      </c>
+      <c r="L422" t="n">
+        <v>1</v>
+      </c>
+      <c r="M422" t="n">
+        <v>0</v>
+      </c>
+      <c r="N422" t="n">
+        <v>1</v>
+      </c>
+      <c r="O422" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P422" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q422" t="n">
+        <v>4</v>
+      </c>
+      <c r="R422" t="n">
+        <v>1</v>
+      </c>
+      <c r="S422" t="n">
+        <v>5</v>
+      </c>
+      <c r="T422" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U422" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V422" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W422" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X422" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="Y422" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Z422" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA422" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB422" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AC422" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AD422" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE422" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="AF422" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG422" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH422" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI422" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="AJ422" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AK422" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL422" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM422" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN422" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO422" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP422" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ422" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR422" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AS422" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AT422" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AU422" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AV422" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AW422" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AX422" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AY422" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ422" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BA422" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BB422" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BC422" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BD422" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE422" t="n">
+        <v>4</v>
+      </c>
+      <c r="BF422" t="n">
+        <v>9</v>
+      </c>
+      <c r="BG422" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH422" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI422" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ422" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK422" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B423" t="n">
+        <v>2604860</v>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D423" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E423" s="2" t="n">
+        <v>45052.5625</v>
+      </c>
+      <c r="F423" t="n">
+        <v>39</v>
+      </c>
+      <c r="G423" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="H423" t="inlineStr">
+        <is>
+          <t>SD Huesca</t>
+        </is>
+      </c>
+      <c r="I423" t="n">
+        <v>1</v>
+      </c>
+      <c r="J423" t="n">
+        <v>1</v>
+      </c>
+      <c r="K423" t="n">
+        <v>2</v>
+      </c>
+      <c r="L423" t="n">
+        <v>2</v>
+      </c>
+      <c r="M423" t="n">
+        <v>1</v>
+      </c>
+      <c r="N423" t="n">
+        <v>3</v>
+      </c>
+      <c r="O423" t="inlineStr">
+        <is>
+          <t>['7', '90+4']</t>
+        </is>
+      </c>
+      <c r="P423" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="Q423" t="n">
+        <v>8</v>
+      </c>
+      <c r="R423" t="n">
+        <v>3</v>
+      </c>
+      <c r="S423" t="n">
+        <v>11</v>
+      </c>
+      <c r="T423" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="U423" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V423" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="W423" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X423" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y423" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Z423" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA423" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB423" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AC423" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AD423" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AE423" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AF423" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG423" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AH423" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AI423" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ423" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AK423" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AL423" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AM423" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AN423" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AO423" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP423" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AQ423" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AR423" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="AS423" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT423" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="AU423" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AV423" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW423" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AX423" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AY423" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ423" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BA423" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BB423" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BC423" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD423" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE423" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF423" t="n">
+        <v>10</v>
+      </c>
+      <c r="BG423" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH423" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI423" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ423" t="n">
+        <v>17</v>
+      </c>
+      <c r="BK423" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B424" t="n">
+        <v>2604863</v>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D424" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E424" s="2" t="n">
+        <v>45053.375</v>
+      </c>
+      <c r="F424" t="n">
+        <v>39</v>
+      </c>
+      <c r="G424" t="inlineStr">
+        <is>
+          <t>Villarreal II</t>
+        </is>
+      </c>
+      <c r="H424" t="inlineStr">
+        <is>
+          <t>Sporting Gijón</t>
+        </is>
+      </c>
+      <c r="I424" t="n">
+        <v>1</v>
+      </c>
+      <c r="J424" t="n">
+        <v>0</v>
+      </c>
+      <c r="K424" t="n">
+        <v>1</v>
+      </c>
+      <c r="L424" t="n">
+        <v>2</v>
+      </c>
+      <c r="M424" t="n">
+        <v>0</v>
+      </c>
+      <c r="N424" t="n">
+        <v>2</v>
+      </c>
+      <c r="O424" t="inlineStr">
+        <is>
+          <t>['39', '84']</t>
+        </is>
+      </c>
+      <c r="P424" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q424" t="n">
+        <v>5</v>
+      </c>
+      <c r="R424" t="n">
+        <v>1</v>
+      </c>
+      <c r="S424" t="n">
+        <v>6</v>
+      </c>
+      <c r="T424" t="n">
+        <v>3</v>
+      </c>
+      <c r="U424" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="V424" t="n">
+        <v>4</v>
+      </c>
+      <c r="W424" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X424" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y424" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Z424" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AA424" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB424" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC424" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AD424" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AE424" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AF424" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG424" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AH424" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AI424" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AJ424" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK424" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL424" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AM424" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AN424" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AO424" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP424" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AQ424" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR424" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="AS424" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AT424" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AU424" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AV424" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AW424" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AX424" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AY424" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ424" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BA424" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BB424" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BC424" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BD424" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BE424" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BF424" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG424" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH424" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI424" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ424" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK424" t="n">
         <v>7</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK430"/>
+  <dimension ref="A1:BK431"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT9" t="n">
         <v>0.7</v>
@@ -4354,7 +4354,7 @@
         <v>1.6</v>
       </c>
       <c r="AT19" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU19" t="n">
         <v>1.36</v>
@@ -5978,7 +5978,7 @@
         <v>0.95</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU27" t="n">
         <v>0.93</v>
@@ -9020,7 +9020,7 @@
         <v>3</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT42" t="n">
         <v>1.42</v>
@@ -9835,7 +9835,7 @@
         <v>1.79</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU46" t="n">
         <v>1.44</v>
@@ -10238,7 +10238,7 @@
         <v>3</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT48" t="n">
         <v>1.21</v>
@@ -14504,7 +14504,7 @@
         <v>1.84</v>
       </c>
       <c r="AT69" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU69" t="n">
         <v>1.13</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT73" t="n">
         <v>1.45</v>
@@ -19576,7 +19576,7 @@
         <v>2</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT94" t="n">
         <v>1.21</v>
@@ -19782,7 +19782,7 @@
         <v>1.55</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU95" t="n">
         <v>1.68</v>
@@ -24248,7 +24248,7 @@
         <v>1.89</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU117" t="n">
         <v>1.52</v>
@@ -24448,7 +24448,7 @@
         <v>0.25</v>
       </c>
       <c r="AS118" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT118" t="n">
         <v>0.95</v>
@@ -28711,7 +28711,7 @@
         <v>0.67</v>
       </c>
       <c r="AS139" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT139" t="n">
         <v>0.53</v>
@@ -30744,7 +30744,7 @@
         <v>0.95</v>
       </c>
       <c r="AT149" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU149" t="n">
         <v>1.3</v>
@@ -32365,7 +32365,7 @@
         <v>0.29</v>
       </c>
       <c r="AS157" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT157" t="n">
         <v>0.74</v>
@@ -34804,7 +34804,7 @@
         <v>1.68</v>
       </c>
       <c r="AT169" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU169" t="n">
         <v>1.58</v>
@@ -37846,7 +37846,7 @@
         <v>0.88</v>
       </c>
       <c r="AS184" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT184" t="n">
         <v>0.95</v>
@@ -39879,7 +39879,7 @@
         <v>1.65</v>
       </c>
       <c r="AT194" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU194" t="n">
         <v>1.65</v>
@@ -42312,7 +42312,7 @@
         <v>1</v>
       </c>
       <c r="AS206" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT206" t="n">
         <v>1.42</v>
@@ -43533,7 +43533,7 @@
         <v>1.58</v>
       </c>
       <c r="AT212" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU212" t="n">
         <v>1.94</v>
@@ -47184,7 +47184,7 @@
         <v>0.6</v>
       </c>
       <c r="AS230" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT230" t="n">
         <v>0.65</v>
@@ -51650,7 +51650,7 @@
         <v>1.18</v>
       </c>
       <c r="AS252" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT252" t="n">
         <v>1.1</v>
@@ -52059,7 +52059,7 @@
         <v>1.74</v>
       </c>
       <c r="AT254" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU254" t="n">
         <v>1.51</v>
@@ -54901,7 +54901,7 @@
         <v>2</v>
       </c>
       <c r="AT268" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU268" t="n">
         <v>1.83</v>
@@ -58755,7 +58755,7 @@
         <v>1.92</v>
       </c>
       <c r="AS287" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT287" t="n">
         <v>1.65</v>
@@ -60991,7 +60991,7 @@
         <v>1.42</v>
       </c>
       <c r="AT298" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU298" t="n">
         <v>1.57</v>
@@ -62815,7 +62815,7 @@
         <v>1.46</v>
       </c>
       <c r="AS307" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT307" t="n">
         <v>1.45</v>
@@ -64239,7 +64239,7 @@
         <v>1.7</v>
       </c>
       <c r="AT314" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU314" t="n">
         <v>1.67</v>
@@ -65860,7 +65860,7 @@
         <v>0.71</v>
       </c>
       <c r="AS322" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT322" t="n">
         <v>0.85</v>
@@ -68908,7 +68908,7 @@
         <v>1.58</v>
       </c>
       <c r="AT337" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU337" t="n">
         <v>1.68</v>
@@ -71341,7 +71341,7 @@
         <v>0.73</v>
       </c>
       <c r="AS349" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT349" t="n">
         <v>0.8</v>
@@ -74389,7 +74389,7 @@
         <v>1.37</v>
       </c>
       <c r="AT364" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU364" t="n">
         <v>1.49</v>
@@ -74792,7 +74792,7 @@
         <v>1.18</v>
       </c>
       <c r="AS366" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT366" t="n">
         <v>1.05</v>
@@ -78246,7 +78246,7 @@
         <v>1.2</v>
       </c>
       <c r="AT383" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU383" t="n">
         <v>1.41</v>
@@ -79867,7 +79867,7 @@
         <v>0.82</v>
       </c>
       <c r="AS391" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT391" t="n">
         <v>0.79</v>
@@ -83118,7 +83118,7 @@
         <v>2.15</v>
       </c>
       <c r="AT407" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU407" t="n">
         <v>1.65</v>
@@ -84133,7 +84133,7 @@
         <v>1.95</v>
       </c>
       <c r="AT412" t="n">
-        <v>0.74</v>
+        <v>0.85</v>
       </c>
       <c r="AU412" t="n">
         <v>1.79</v>
@@ -85551,7 +85551,7 @@
         <v>0.89</v>
       </c>
       <c r="AS419" t="n">
-        <v>1.68</v>
+        <v>1.6</v>
       </c>
       <c r="AT419" t="n">
         <v>0.84</v>
@@ -87839,6 +87839,209 @@
       </c>
       <c r="BK430" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B431" t="n">
+        <v>2604866</v>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D431" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E431" s="2" t="n">
+        <v>45058.66666666666</v>
+      </c>
+      <c r="F431" t="n">
+        <v>40</v>
+      </c>
+      <c r="G431" t="inlineStr">
+        <is>
+          <t>Burgos CF</t>
+        </is>
+      </c>
+      <c r="H431" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="I431" t="n">
+        <v>0</v>
+      </c>
+      <c r="J431" t="n">
+        <v>2</v>
+      </c>
+      <c r="K431" t="n">
+        <v>2</v>
+      </c>
+      <c r="L431" t="n">
+        <v>0</v>
+      </c>
+      <c r="M431" t="n">
+        <v>3</v>
+      </c>
+      <c r="N431" t="n">
+        <v>3</v>
+      </c>
+      <c r="O431" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P431" t="inlineStr">
+        <is>
+          <t>['39', '45+2', '68']</t>
+        </is>
+      </c>
+      <c r="Q431" t="n">
+        <v>5</v>
+      </c>
+      <c r="R431" t="n">
+        <v>4</v>
+      </c>
+      <c r="S431" t="n">
+        <v>9</v>
+      </c>
+      <c r="T431" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="U431" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="V431" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="W431" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X431" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Y431" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Z431" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA431" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB431" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AC431" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD431" t="n">
+        <v>3</v>
+      </c>
+      <c r="AE431" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AF431" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AG431" t="n">
+        <v>7</v>
+      </c>
+      <c r="AH431" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI431" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ431" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK431" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL431" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AM431" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AN431" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AO431" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP431" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AQ431" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AR431" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="AS431" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AT431" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="AU431" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AV431" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW431" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="AX431" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AY431" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ431" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BA431" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BB431" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC431" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BD431" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BE431" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF431" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG431" t="n">
+        <v>8</v>
+      </c>
+      <c r="BH431" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI431" t="n">
+        <v>8</v>
+      </c>
+      <c r="BJ431" t="n">
+        <v>14</v>
+      </c>
+      <c r="BK431" t="n">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK450"/>
+  <dimension ref="A1:BK452"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT5" t="n">
         <v>1.2</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT10" t="n">
         <v>1.1</v>
@@ -4151,7 +4151,7 @@
         <v>2.6</v>
       </c>
       <c r="AT18" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU18" t="n">
         <v>0</v>
@@ -4351,7 +4351,7 @@
         <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT19" t="n">
         <v>0.85</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT35" t="n">
         <v>1.35</v>
@@ -8414,7 +8414,7 @@
         <v>2</v>
       </c>
       <c r="AT39" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU39" t="n">
         <v>2.55</v>
@@ -9629,7 +9629,7 @@
         <v>1</v>
       </c>
       <c r="AS45" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT45" t="n">
         <v>1.52</v>
@@ -10850,7 +10850,7 @@
         <v>1.65</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU51" t="n">
         <v>1.69</v>
@@ -12471,7 +12471,7 @@
         <v>0</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT59" t="n">
         <v>0.55</v>
@@ -13283,7 +13283,7 @@
         <v>1</v>
       </c>
       <c r="AS63" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT63" t="n">
         <v>1.05</v>
@@ -15722,7 +15722,7 @@
         <v>1.95</v>
       </c>
       <c r="AT75" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU75" t="n">
         <v>1.82</v>
@@ -17749,7 +17749,7 @@
         <v>2</v>
       </c>
       <c r="AS85" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT85" t="n">
         <v>1.43</v>
@@ -17952,7 +17952,7 @@
         <v>2</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT86" t="n">
         <v>1.35</v>
@@ -20188,7 +20188,7 @@
         <v>1.85</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU97" t="n">
         <v>1.54</v>
@@ -21403,7 +21403,7 @@
         <v>0.8</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT103" t="n">
         <v>0.67</v>
@@ -22012,7 +22012,7 @@
         <v>0.5</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT106" t="n">
         <v>0.76</v>
@@ -23842,7 +23842,7 @@
         <v>1.8</v>
       </c>
       <c r="AT115" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU115" t="n">
         <v>1.19</v>
@@ -26884,7 +26884,7 @@
         <v>0.4</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT130" t="n">
         <v>0.7</v>
@@ -27493,7 +27493,7 @@
         <v>0.67</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT133" t="n">
         <v>0.67</v>
@@ -28508,10 +28508,10 @@
         <v>1.17</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT138" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU138" t="n">
         <v>1.37</v>
@@ -32571,7 +32571,7 @@
         <v>1.65</v>
       </c>
       <c r="AT158" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU158" t="n">
         <v>1.69</v>
@@ -32974,7 +32974,7 @@
         <v>1.14</v>
       </c>
       <c r="AS160" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT160" t="n">
         <v>0.8</v>
@@ -33380,7 +33380,7 @@
         <v>0.71</v>
       </c>
       <c r="AS162" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT162" t="n">
         <v>0.95</v>
@@ -37240,7 +37240,7 @@
         <v>1.7</v>
       </c>
       <c r="AT181" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU181" t="n">
         <v>1.57</v>
@@ -37440,7 +37440,7 @@
         <v>0.43</v>
       </c>
       <c r="AS182" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT182" t="n">
         <v>0.9</v>
@@ -38049,7 +38049,7 @@
         <v>0.63</v>
       </c>
       <c r="AS185" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT185" t="n">
         <v>0.95</v>
@@ -41094,7 +41094,7 @@
         <v>0.38</v>
       </c>
       <c r="AS200" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT200" t="n">
         <v>0.9</v>
@@ -41297,7 +41297,7 @@
         <v>1.78</v>
       </c>
       <c r="AS201" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT201" t="n">
         <v>1.71</v>
@@ -42721,7 +42721,7 @@
         <v>1.05</v>
       </c>
       <c r="AT208" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU208" t="n">
         <v>1.31</v>
@@ -46375,7 +46375,7 @@
         <v>1.48</v>
       </c>
       <c r="AT226" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU226" t="n">
         <v>1.85</v>
@@ -46575,7 +46575,7 @@
         <v>1.1</v>
       </c>
       <c r="AS227" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT227" t="n">
         <v>0.8100000000000001</v>
@@ -47590,7 +47590,7 @@
         <v>0.9</v>
       </c>
       <c r="AS232" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT232" t="n">
         <v>0.9</v>
@@ -48199,7 +48199,7 @@
         <v>0.8</v>
       </c>
       <c r="AS235" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT235" t="n">
         <v>0.45</v>
@@ -49420,7 +49420,7 @@
         <v>1.75</v>
       </c>
       <c r="AT241" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU241" t="n">
         <v>1.85</v>
@@ -50026,7 +50026,7 @@
         <v>1.18</v>
       </c>
       <c r="AS244" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT244" t="n">
         <v>1.2</v>
@@ -53074,7 +53074,7 @@
         <v>2.19</v>
       </c>
       <c r="AT259" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU259" t="n">
         <v>1.59</v>
@@ -53274,7 +53274,7 @@
         <v>1.64</v>
       </c>
       <c r="AS260" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT260" t="n">
         <v>1.52</v>
@@ -55101,7 +55101,7 @@
         <v>0.92</v>
       </c>
       <c r="AS269" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT269" t="n">
         <v>0.85</v>
@@ -56928,7 +56928,7 @@
         <v>0.92</v>
       </c>
       <c r="AS278" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT278" t="n">
         <v>0.8100000000000001</v>
@@ -58149,7 +58149,7 @@
         <v>1.19</v>
       </c>
       <c r="AT284" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU284" t="n">
         <v>1.47</v>
@@ -60176,7 +60176,7 @@
         <v>1.31</v>
       </c>
       <c r="AS294" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT294" t="n">
         <v>1.05</v>
@@ -61800,7 +61800,7 @@
         <v>1.85</v>
       </c>
       <c r="AS302" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT302" t="n">
         <v>1.71</v>
@@ -63021,7 +63021,7 @@
         <v>1.57</v>
       </c>
       <c r="AT308" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU308" t="n">
         <v>1.58</v>
@@ -65251,7 +65251,7 @@
         <v>1.43</v>
       </c>
       <c r="AS319" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT319" t="n">
         <v>1.43</v>
@@ -66672,7 +66672,7 @@
         <v>0.36</v>
       </c>
       <c r="AS326" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT326" t="n">
         <v>0.55</v>
@@ -67284,7 +67284,7 @@
         <v>1.45</v>
       </c>
       <c r="AT329" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU329" t="n">
         <v>1.49</v>
@@ -67890,7 +67890,7 @@
         <v>0.73</v>
       </c>
       <c r="AS332" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT332" t="n">
         <v>0.7</v>
@@ -70529,7 +70529,7 @@
         <v>0.93</v>
       </c>
       <c r="AS345" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT345" t="n">
         <v>1.2</v>
@@ -71953,7 +71953,7 @@
         <v>0.9</v>
       </c>
       <c r="AT352" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU352" t="n">
         <v>1.25</v>
@@ -74795,7 +74795,7 @@
         <v>1.6</v>
       </c>
       <c r="AT366" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU366" t="n">
         <v>1.29</v>
@@ -75198,7 +75198,7 @@
         <v>1.44</v>
       </c>
       <c r="AS368" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT368" t="n">
         <v>1.35</v>
@@ -75401,7 +75401,7 @@
         <v>1.56</v>
       </c>
       <c r="AS369" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT369" t="n">
         <v>1.35</v>
@@ -79461,7 +79461,7 @@
         <v>0.53</v>
       </c>
       <c r="AS389" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT389" t="n">
         <v>0.45</v>
@@ -79667,7 +79667,7 @@
         <v>1.65</v>
       </c>
       <c r="AT390" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU390" t="n">
         <v>1.61</v>
@@ -80882,7 +80882,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AS396" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT396" t="n">
         <v>0.85</v>
@@ -84536,7 +84536,7 @@
         <v>0.83</v>
       </c>
       <c r="AS414" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT414" t="n">
         <v>0.8</v>
@@ -85960,7 +85960,7 @@
         <v>1.62</v>
       </c>
       <c r="AT421" t="n">
-        <v>1.05</v>
+        <v>1</v>
       </c>
       <c r="AU421" t="n">
         <v>1.6</v>
@@ -86363,7 +86363,7 @@
         <v>0.68</v>
       </c>
       <c r="AS423" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AT423" t="n">
         <v>0.76</v>
@@ -87175,7 +87175,7 @@
         <v>1</v>
       </c>
       <c r="AS427" t="n">
-        <v>1.6</v>
+        <v>1.67</v>
       </c>
       <c r="AT427" t="n">
         <v>0.9</v>
@@ -91899,6 +91899,412 @@
       </c>
       <c r="BK450" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B451" t="n">
+        <v>2604880</v>
+      </c>
+      <c r="C451" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D451" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E451" s="2" t="n">
+        <v>45067.46875</v>
+      </c>
+      <c r="F451" t="n">
+        <v>41</v>
+      </c>
+      <c r="G451" t="inlineStr">
+        <is>
+          <t>Real Oviedo</t>
+        </is>
+      </c>
+      <c r="H451" t="inlineStr">
+        <is>
+          <t>Racing Santander</t>
+        </is>
+      </c>
+      <c r="I451" t="n">
+        <v>1</v>
+      </c>
+      <c r="J451" t="n">
+        <v>0</v>
+      </c>
+      <c r="K451" t="n">
+        <v>1</v>
+      </c>
+      <c r="L451" t="n">
+        <v>1</v>
+      </c>
+      <c r="M451" t="n">
+        <v>0</v>
+      </c>
+      <c r="N451" t="n">
+        <v>1</v>
+      </c>
+      <c r="O451" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="P451" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q451" t="n">
+        <v>4</v>
+      </c>
+      <c r="R451" t="n">
+        <v>3</v>
+      </c>
+      <c r="S451" t="n">
+        <v>7</v>
+      </c>
+      <c r="T451" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="U451" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="V451" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="W451" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X451" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="Y451" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z451" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA451" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB451" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC451" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AD451" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AE451" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AF451" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AG451" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AH451" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI451" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ451" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AK451" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AL451" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM451" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN451" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO451" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AP451" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ451" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AR451" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AS451" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AT451" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU451" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AV451" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AW451" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AX451" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AY451" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ451" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BA451" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB451" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BC451" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD451" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BE451" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BF451" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG451" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH451" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI451" t="n">
+        <v>10</v>
+      </c>
+      <c r="BJ451" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK451" t="n">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B452" t="n">
+        <v>2604881</v>
+      </c>
+      <c r="C452" t="inlineStr">
+        <is>
+          <t>Spain Segunda División</t>
+        </is>
+      </c>
+      <c r="D452" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E452" s="2" t="n">
+        <v>45067.5625</v>
+      </c>
+      <c r="F452" t="n">
+        <v>41</v>
+      </c>
+      <c r="G452" t="inlineStr">
+        <is>
+          <t>Leganés</t>
+        </is>
+      </c>
+      <c r="H452" t="inlineStr">
+        <is>
+          <t>FC Andorra</t>
+        </is>
+      </c>
+      <c r="I452" t="n">
+        <v>1</v>
+      </c>
+      <c r="J452" t="n">
+        <v>1</v>
+      </c>
+      <c r="K452" t="n">
+        <v>2</v>
+      </c>
+      <c r="L452" t="n">
+        <v>1</v>
+      </c>
+      <c r="M452" t="n">
+        <v>1</v>
+      </c>
+      <c r="N452" t="n">
+        <v>2</v>
+      </c>
+      <c r="O452" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P452" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="Q452" t="n">
+        <v>2</v>
+      </c>
+      <c r="R452" t="n">
+        <v>6</v>
+      </c>
+      <c r="S452" t="n">
+        <v>8</v>
+      </c>
+      <c r="T452" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="U452" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="V452" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="W452" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X452" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Y452" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Z452" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA452" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB452" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AC452" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD452" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AE452" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AF452" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AG452" t="n">
+        <v>6</v>
+      </c>
+      <c r="AH452" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AI452" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AJ452" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AK452" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL452" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM452" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AN452" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AO452" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP452" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ452" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR452" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AS452" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AT452" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AU452" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV452" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW452" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AX452" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY452" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ452" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA452" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB452" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BC452" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BD452" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BE452" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BF452" t="n">
+        <v>8</v>
+      </c>
+      <c r="BG452" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH452" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI452" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ452" t="n">
+        <v>16</v>
+      </c>
+      <c r="BK452" t="n">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2835" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2847" uniqueCount="421">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1275,6 +1275,9 @@
   <si>
     <t>['12', '57', '70', '82']</t>
   </si>
+  <si>
+    <t>['30', '34', '56']</t>
+  </si>
 </sst>
 </file>
 
@@ -1635,7 +1638,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK463"/>
+  <dimension ref="A1:BK465"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2157,7 +2160,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT3">
         <v>0.71</v>
@@ -2542,7 +2545,7 @@
         <v>1.71</v>
       </c>
       <c r="AT5">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -4643,7 +4646,7 @@
         <v>1.62</v>
       </c>
       <c r="AT16">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU16">
         <v>0</v>
@@ -4831,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT17">
         <v>1.05</v>
@@ -6168,7 +6171,7 @@
         <v>1</v>
       </c>
       <c r="AS24">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT24">
         <v>0.76</v>
@@ -7505,7 +7508,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT31">
         <v>0.9</v>
@@ -7699,7 +7702,7 @@
         <v>1.05</v>
       </c>
       <c r="AT32">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU32">
         <v>1.04</v>
@@ -10182,7 +10185,7 @@
         <v>1.67</v>
       </c>
       <c r="AT45">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU45">
         <v>1.45</v>
@@ -10564,7 +10567,7 @@
         <v>0.9</v>
       </c>
       <c r="AT47">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU47">
         <v>1.06</v>
@@ -12280,7 +12283,7 @@
         <v>1.5</v>
       </c>
       <c r="AS56">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT56">
         <v>0.95</v>
@@ -14190,7 +14193,7 @@
         <v>1.5</v>
       </c>
       <c r="AS66">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT66">
         <v>0.9</v>
@@ -15530,7 +15533,7 @@
         <v>1.52</v>
       </c>
       <c r="AT73">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU73">
         <v>1.51</v>
@@ -15909,7 +15912,7 @@
         <v>1</v>
       </c>
       <c r="AS75">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT75">
         <v>1</v>
@@ -16100,7 +16103,7 @@
         <v>1</v>
       </c>
       <c r="AS76">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT76">
         <v>1.1</v>
@@ -16294,7 +16297,7 @@
         <v>1.48</v>
       </c>
       <c r="AT77">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU77">
         <v>1.55</v>
@@ -17249,7 +17252,7 @@
         <v>1.71</v>
       </c>
       <c r="AT82">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU82">
         <v>1.59</v>
@@ -19541,7 +19544,7 @@
         <v>1.52</v>
       </c>
       <c r="AT94">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU94">
         <v>1.52</v>
@@ -20302,7 +20305,7 @@
         <v>0.25</v>
       </c>
       <c r="AS98">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT98">
         <v>0.71</v>
@@ -20684,7 +20687,7 @@
         <v>0</v>
       </c>
       <c r="AS100">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT100">
         <v>0.86</v>
@@ -22597,7 +22600,7 @@
         <v>1.62</v>
       </c>
       <c r="AT110">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU110">
         <v>1.62</v>
@@ -22979,7 +22982,7 @@
         <v>1.71</v>
       </c>
       <c r="AT112">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU112">
         <v>1.77</v>
@@ -23740,7 +23743,7 @@
         <v>1.5</v>
       </c>
       <c r="AS116">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT116">
         <v>1.14</v>
@@ -25844,7 +25847,7 @@
         <v>1.05</v>
       </c>
       <c r="AT127">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU127">
         <v>1.25</v>
@@ -26605,7 +26608,7 @@
         <v>2</v>
       </c>
       <c r="AS131">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT131">
         <v>1.43</v>
@@ -28897,7 +28900,7 @@
         <v>0.67</v>
       </c>
       <c r="AS143">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT143">
         <v>0.8100000000000001</v>
@@ -29855,7 +29858,7 @@
         <v>1.57</v>
       </c>
       <c r="AT148">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU148">
         <v>1.53</v>
@@ -30234,7 +30237,7 @@
         <v>0.83</v>
       </c>
       <c r="AS150">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT150">
         <v>0.57</v>
@@ -31192,7 +31195,7 @@
         <v>2.62</v>
       </c>
       <c r="AT155">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU155">
         <v>1.43</v>
@@ -33099,10 +33102,10 @@
         <v>1.43</v>
       </c>
       <c r="AS165">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT165">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU165">
         <v>1.58</v>
@@ -34818,10 +34821,10 @@
         <v>1.71</v>
       </c>
       <c r="AS174">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT174">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU174">
         <v>2.01</v>
@@ -36155,7 +36158,7 @@
         <v>1.38</v>
       </c>
       <c r="AS181">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT181">
         <v>1</v>
@@ -37113,7 +37116,7 @@
         <v>0.9</v>
       </c>
       <c r="AT186">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU186">
         <v>1.29</v>
@@ -37877,7 +37880,7 @@
         <v>2.62</v>
       </c>
       <c r="AT190">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU190">
         <v>1.67</v>
@@ -39211,7 +39214,7 @@
         <v>0.75</v>
       </c>
       <c r="AS197">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT197">
         <v>0.76</v>
@@ -40166,7 +40169,7 @@
         <v>0.89</v>
       </c>
       <c r="AS202">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT202">
         <v>0.9</v>
@@ -40742,7 +40745,7 @@
         <v>2</v>
       </c>
       <c r="AT205">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU205">
         <v>1.95</v>
@@ -43031,7 +43034,7 @@
         <v>1.11</v>
       </c>
       <c r="AS217">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT217">
         <v>1.14</v>
@@ -43798,7 +43801,7 @@
         <v>2.19</v>
       </c>
       <c r="AT221">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU221">
         <v>1.53</v>
@@ -45132,7 +45135,7 @@
         <v>0.44</v>
       </c>
       <c r="AS228">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT228">
         <v>0.57</v>
@@ -45708,7 +45711,7 @@
         <v>1.43</v>
       </c>
       <c r="AT231">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU231">
         <v>1.6</v>
@@ -46281,7 +46284,7 @@
         <v>1.57</v>
       </c>
       <c r="AT234">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU234">
         <v>1.7</v>
@@ -47806,7 +47809,7 @@
         <v>0.4</v>
       </c>
       <c r="AS242">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT242">
         <v>0.57</v>
@@ -48191,7 +48194,7 @@
         <v>1.67</v>
       </c>
       <c r="AT244">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU244">
         <v>1.14</v>
@@ -49525,7 +49528,7 @@
         <v>0.55</v>
       </c>
       <c r="AS251">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT251">
         <v>0.67</v>
@@ -50098,7 +50101,7 @@
         <v>0.9</v>
       </c>
       <c r="AS254">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT254">
         <v>0.8100000000000001</v>
@@ -51247,7 +51250,7 @@
         <v>1.71</v>
       </c>
       <c r="AT260">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU260">
         <v>1.4</v>
@@ -52772,7 +52775,7 @@
         <v>0.82</v>
       </c>
       <c r="AS268">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT268">
         <v>0.8100000000000001</v>
@@ -53348,7 +53351,7 @@
         <v>1.62</v>
       </c>
       <c r="AT271">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU271">
         <v>1.63</v>
@@ -53727,7 +53730,7 @@
         <v>0.67</v>
       </c>
       <c r="AS273">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT273">
         <v>0.57</v>
@@ -55831,7 +55834,7 @@
         <v>1.48</v>
       </c>
       <c r="AT284">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU284">
         <v>1.72</v>
@@ -56786,7 +56789,7 @@
         <v>1.62</v>
       </c>
       <c r="AT289">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU289">
         <v>1.66</v>
@@ -57547,7 +57550,7 @@
         <v>0.54</v>
       </c>
       <c r="AS293">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT293">
         <v>0.67</v>
@@ -57929,7 +57932,7 @@
         <v>1.33</v>
       </c>
       <c r="AS295">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT295">
         <v>1.29</v>
@@ -59078,7 +59081,7 @@
         <v>1.19</v>
       </c>
       <c r="AT301">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU301">
         <v>1.46</v>
@@ -60794,7 +60797,7 @@
         <v>1</v>
       </c>
       <c r="AS310">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT310">
         <v>0.8100000000000001</v>
@@ -63471,7 +63474,7 @@
         <v>1.71</v>
       </c>
       <c r="AT324">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU324">
         <v>1.17</v>
@@ -64041,7 +64044,7 @@
         <v>0.79</v>
       </c>
       <c r="AS327">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT327">
         <v>0.8100000000000001</v>
@@ -64808,7 +64811,7 @@
         <v>1.57</v>
       </c>
       <c r="AT331">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU331">
         <v>1.57</v>
@@ -65187,7 +65190,7 @@
         <v>1.4</v>
       </c>
       <c r="AS333">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT333">
         <v>1.05</v>
@@ -67100,7 +67103,7 @@
         <v>1.43</v>
       </c>
       <c r="AT343">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU343">
         <v>1.5</v>
@@ -67479,7 +67482,7 @@
         <v>0.87</v>
       </c>
       <c r="AS345">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT345">
         <v>0.95</v>
@@ -68055,7 +68058,7 @@
         <v>1.19</v>
       </c>
       <c r="AT348">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU348">
         <v>1.44</v>
@@ -69392,7 +69395,7 @@
         <v>1.57</v>
       </c>
       <c r="AT355">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU355">
         <v>1.46</v>
@@ -69962,7 +69965,7 @@
         <v>1</v>
       </c>
       <c r="AS358">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT358">
         <v>1.1</v>
@@ -72257,7 +72260,7 @@
         <v>1.71</v>
       </c>
       <c r="AT370">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU370">
         <v>1.2</v>
@@ -73209,7 +73212,7 @@
         <v>1.63</v>
       </c>
       <c r="AS375">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT375">
         <v>1.71</v>
@@ -74546,10 +74549,10 @@
         <v>1.59</v>
       </c>
       <c r="AS382">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT382">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU382">
         <v>1.78</v>
@@ -75501,7 +75504,7 @@
         <v>1.53</v>
       </c>
       <c r="AS387">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT387">
         <v>1.43</v>
@@ -76650,7 +76653,7 @@
         <v>1.57</v>
       </c>
       <c r="AT393">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU393">
         <v>1.56</v>
@@ -77602,7 +77605,7 @@
         <v>1</v>
       </c>
       <c r="AS398">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT398">
         <v>0.9</v>
@@ -78369,7 +78372,7 @@
         <v>1.71</v>
       </c>
       <c r="AT402">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU402">
         <v>2.01</v>
@@ -79897,7 +79900,7 @@
         <v>1.9</v>
       </c>
       <c r="AT410">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU410">
         <v>1.66</v>
@@ -80085,7 +80088,7 @@
         <v>1.44</v>
       </c>
       <c r="AS411">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT411">
         <v>1.29</v>
@@ -82380,7 +82383,7 @@
         <v>2</v>
       </c>
       <c r="AT423">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU423">
         <v>1.75</v>
@@ -83714,7 +83717,7 @@
         <v>1.58</v>
       </c>
       <c r="AS430">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT430">
         <v>1.71</v>
@@ -85433,10 +85436,10 @@
         <v>1.21</v>
       </c>
       <c r="AS439">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT439">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU439">
         <v>1.58</v>
@@ -86579,7 +86582,7 @@
         <v>0.8</v>
       </c>
       <c r="AS445">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AT445">
         <v>0.8100000000000001</v>
@@ -87155,7 +87158,7 @@
         <v>1.57</v>
       </c>
       <c r="AT448">
-        <v>1.52</v>
+        <v>1.59</v>
       </c>
       <c r="AU448">
         <v>1.6</v>
@@ -88680,7 +88683,7 @@
         <v>0.9</v>
       </c>
       <c r="AS456">
-        <v>1.76</v>
+        <v>1.68</v>
       </c>
       <c r="AT456">
         <v>0.86</v>
@@ -89256,7 +89259,7 @@
         <v>1.71</v>
       </c>
       <c r="AT459">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AU459">
         <v>1.94</v>
@@ -90072,6 +90075,388 @@
       </c>
       <c r="BK463">
         <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:63">
+      <c r="A464" s="1">
+        <v>463</v>
+      </c>
+      <c r="B464">
+        <v>6258662</v>
+      </c>
+      <c r="C464" t="s">
+        <v>63</v>
+      </c>
+      <c r="D464" t="s">
+        <v>64</v>
+      </c>
+      <c r="E464" s="2">
+        <v>45080.5625</v>
+      </c>
+      <c r="F464">
+        <v>0</v>
+      </c>
+      <c r="G464" t="s">
+        <v>66</v>
+      </c>
+      <c r="H464" t="s">
+        <v>77</v>
+      </c>
+      <c r="I464">
+        <v>1</v>
+      </c>
+      <c r="J464">
+        <v>1</v>
+      </c>
+      <c r="K464">
+        <v>2</v>
+      </c>
+      <c r="L464">
+        <v>1</v>
+      </c>
+      <c r="M464">
+        <v>1</v>
+      </c>
+      <c r="N464">
+        <v>2</v>
+      </c>
+      <c r="O464" t="s">
+        <v>107</v>
+      </c>
+      <c r="P464" t="s">
+        <v>387</v>
+      </c>
+      <c r="Q464">
+        <v>5</v>
+      </c>
+      <c r="R464">
+        <v>4</v>
+      </c>
+      <c r="S464">
+        <v>9</v>
+      </c>
+      <c r="T464">
+        <v>3.1</v>
+      </c>
+      <c r="U464">
+        <v>1.8</v>
+      </c>
+      <c r="V464">
+        <v>4</v>
+      </c>
+      <c r="W464">
+        <v>1.6</v>
+      </c>
+      <c r="X464">
+        <v>2.25</v>
+      </c>
+      <c r="Y464">
+        <v>3.75</v>
+      </c>
+      <c r="Z464">
+        <v>1.25</v>
+      </c>
+      <c r="AA464">
+        <v>10</v>
+      </c>
+      <c r="AB464">
+        <v>1.04</v>
+      </c>
+      <c r="AC464">
+        <v>2.3</v>
+      </c>
+      <c r="AD464">
+        <v>2.9</v>
+      </c>
+      <c r="AE464">
+        <v>3.5</v>
+      </c>
+      <c r="AF464">
+        <v>1.14</v>
+      </c>
+      <c r="AG464">
+        <v>5</v>
+      </c>
+      <c r="AH464">
+        <v>1.57</v>
+      </c>
+      <c r="AI464">
+        <v>2.4</v>
+      </c>
+      <c r="AJ464">
+        <v>2.75</v>
+      </c>
+      <c r="AK464">
+        <v>1.39</v>
+      </c>
+      <c r="AL464">
+        <v>2.25</v>
+      </c>
+      <c r="AM464">
+        <v>1.6</v>
+      </c>
+      <c r="AN464">
+        <v>1.3</v>
+      </c>
+      <c r="AO464">
+        <v>1.36</v>
+      </c>
+      <c r="AP464">
+        <v>1.55</v>
+      </c>
+      <c r="AQ464">
+        <v>1.69</v>
+      </c>
+      <c r="AR464">
+        <v>1.69</v>
+      </c>
+      <c r="AS464">
+        <v>1.67</v>
+      </c>
+      <c r="AT464">
+        <v>1.67</v>
+      </c>
+      <c r="AU464">
+        <v>1.82</v>
+      </c>
+      <c r="AV464">
+        <v>1.23</v>
+      </c>
+      <c r="AW464">
+        <v>3.05</v>
+      </c>
+      <c r="AX464">
+        <v>1.85</v>
+      </c>
+      <c r="AY464">
+        <v>8</v>
+      </c>
+      <c r="AZ464">
+        <v>2.28</v>
+      </c>
+      <c r="BA464">
+        <v>1.25</v>
+      </c>
+      <c r="BB464">
+        <v>1.47</v>
+      </c>
+      <c r="BC464">
+        <v>1.88</v>
+      </c>
+      <c r="BD464">
+        <v>2.45</v>
+      </c>
+      <c r="BE464">
+        <v>3.4</v>
+      </c>
+      <c r="BF464">
+        <v>5</v>
+      </c>
+      <c r="BG464">
+        <v>2</v>
+      </c>
+      <c r="BH464">
+        <v>4</v>
+      </c>
+      <c r="BI464">
+        <v>2</v>
+      </c>
+      <c r="BJ464">
+        <v>9</v>
+      </c>
+      <c r="BK464">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="465" spans="1:63">
+      <c r="A465" s="1">
+        <v>464</v>
+      </c>
+      <c r="B465">
+        <v>6258663</v>
+      </c>
+      <c r="C465" t="s">
+        <v>63</v>
+      </c>
+      <c r="D465" t="s">
+        <v>64</v>
+      </c>
+      <c r="E465" s="2">
+        <v>45080.66666666666</v>
+      </c>
+      <c r="F465">
+        <v>0</v>
+      </c>
+      <c r="G465" t="s">
+        <v>80</v>
+      </c>
+      <c r="H465" t="s">
+        <v>65</v>
+      </c>
+      <c r="I465">
+        <v>1</v>
+      </c>
+      <c r="J465">
+        <v>2</v>
+      </c>
+      <c r="K465">
+        <v>3</v>
+      </c>
+      <c r="L465">
+        <v>1</v>
+      </c>
+      <c r="M465">
+        <v>3</v>
+      </c>
+      <c r="N465">
+        <v>4</v>
+      </c>
+      <c r="O465" t="s">
+        <v>117</v>
+      </c>
+      <c r="P465" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q465">
+        <v>4</v>
+      </c>
+      <c r="R465">
+        <v>1</v>
+      </c>
+      <c r="S465">
+        <v>5</v>
+      </c>
+      <c r="T465">
+        <v>3.2</v>
+      </c>
+      <c r="U465">
+        <v>1.91</v>
+      </c>
+      <c r="V465">
+        <v>3.5</v>
+      </c>
+      <c r="W465">
+        <v>1.5</v>
+      </c>
+      <c r="X465">
+        <v>2.5</v>
+      </c>
+      <c r="Y465">
+        <v>3.4</v>
+      </c>
+      <c r="Z465">
+        <v>1.3</v>
+      </c>
+      <c r="AA465">
+        <v>9</v>
+      </c>
+      <c r="AB465">
+        <v>1.05</v>
+      </c>
+      <c r="AC465">
+        <v>2.5</v>
+      </c>
+      <c r="AD465">
+        <v>3</v>
+      </c>
+      <c r="AE465">
+        <v>3</v>
+      </c>
+      <c r="AF465">
+        <v>1.1</v>
+      </c>
+      <c r="AG465">
+        <v>6.5</v>
+      </c>
+      <c r="AH465">
+        <v>1.47</v>
+      </c>
+      <c r="AI465">
+        <v>2.55</v>
+      </c>
+      <c r="AJ465">
+        <v>2.45</v>
+      </c>
+      <c r="AK465">
+        <v>1.48</v>
+      </c>
+      <c r="AL465">
+        <v>2</v>
+      </c>
+      <c r="AM465">
+        <v>1.73</v>
+      </c>
+      <c r="AN465">
+        <v>1.35</v>
+      </c>
+      <c r="AO465">
+        <v>1.33</v>
+      </c>
+      <c r="AP465">
+        <v>1.55</v>
+      </c>
+      <c r="AQ465">
+        <v>1.6</v>
+      </c>
+      <c r="AR465">
+        <v>1.71</v>
+      </c>
+      <c r="AS465">
+        <v>1.56</v>
+      </c>
+      <c r="AT465">
+        <v>1.74</v>
+      </c>
+      <c r="AU465">
+        <v>1.57</v>
+      </c>
+      <c r="AV465">
+        <v>1.37</v>
+      </c>
+      <c r="AW465">
+        <v>2.94</v>
+      </c>
+      <c r="AX465">
+        <v>2.05</v>
+      </c>
+      <c r="AY465">
+        <v>7.5</v>
+      </c>
+      <c r="AZ465">
+        <v>2.05</v>
+      </c>
+      <c r="BA465">
+        <v>1.32</v>
+      </c>
+      <c r="BB465">
+        <v>1.6</v>
+      </c>
+      <c r="BC465">
+        <v>2.05</v>
+      </c>
+      <c r="BD465">
+        <v>2.8</v>
+      </c>
+      <c r="BE465">
+        <v>4</v>
+      </c>
+      <c r="BF465">
+        <v>3</v>
+      </c>
+      <c r="BG465">
+        <v>4</v>
+      </c>
+      <c r="BH465">
+        <v>7</v>
+      </c>
+      <c r="BI465">
+        <v>2</v>
+      </c>
+      <c r="BJ465">
+        <v>10</v>
+      </c>
+      <c r="BK465">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2859" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="423">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1644,7 +1644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK467"/>
+  <dimension ref="A1:BK468"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4267,7 +4267,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT14">
         <v>0.86</v>
@@ -4843,7 +4843,7 @@
         <v>1.62</v>
       </c>
       <c r="AT17">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU17">
         <v>0</v>
@@ -8469,7 +8469,7 @@
         <v>3</v>
       </c>
       <c r="AS36">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT36">
         <v>1.71</v>
@@ -10191,7 +10191,7 @@
         <v>1.67</v>
       </c>
       <c r="AT45">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU45">
         <v>1.45</v>
@@ -13817,7 +13817,7 @@
         <v>0.5</v>
       </c>
       <c r="AS64">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT64">
         <v>0.76</v>
@@ -15539,7 +15539,7 @@
         <v>1.52</v>
       </c>
       <c r="AT73">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU73">
         <v>1.51</v>
@@ -17258,7 +17258,7 @@
         <v>1.71</v>
       </c>
       <c r="AT82">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU82">
         <v>1.59</v>
@@ -17828,7 +17828,7 @@
         <v>2</v>
       </c>
       <c r="AS85">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT85">
         <v>0.9</v>
@@ -21839,7 +21839,7 @@
         <v>2.25</v>
       </c>
       <c r="AS106">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT106">
         <v>1.36</v>
@@ -22606,7 +22606,7 @@
         <v>1.62</v>
       </c>
       <c r="AT110">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU110">
         <v>1.62</v>
@@ -25468,7 +25468,7 @@
         <v>1</v>
       </c>
       <c r="AS125">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT125">
         <v>0.8100000000000001</v>
@@ -25853,7 +25853,7 @@
         <v>1.05</v>
       </c>
       <c r="AT127">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU127">
         <v>1.25</v>
@@ -27951,7 +27951,7 @@
         <v>1.2</v>
       </c>
       <c r="AS138">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT138">
         <v>1.14</v>
@@ -31201,7 +31201,7 @@
         <v>2.62</v>
       </c>
       <c r="AT155">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU155">
         <v>1.43</v>
@@ -31389,7 +31389,7 @@
         <v>1</v>
       </c>
       <c r="AS156">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT156">
         <v>0.9</v>
@@ -33111,7 +33111,7 @@
         <v>1.68</v>
       </c>
       <c r="AT165">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU165">
         <v>1.58</v>
@@ -35782,7 +35782,7 @@
         <v>0.63</v>
       </c>
       <c r="AS179">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT179">
         <v>0.8100000000000001</v>
@@ -37122,7 +37122,7 @@
         <v>0.9</v>
       </c>
       <c r="AT186">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU186">
         <v>1.29</v>
@@ -43804,10 +43804,10 @@
         <v>1.56</v>
       </c>
       <c r="AS221">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT221">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU221">
         <v>1.53</v>
@@ -46290,7 +46290,7 @@
         <v>1.57</v>
       </c>
       <c r="AT234">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU234">
         <v>1.7</v>
@@ -47051,7 +47051,7 @@
         <v>1.6</v>
       </c>
       <c r="AS238">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT238">
         <v>1.05</v>
@@ -51062,7 +51062,7 @@
         <v>1.25</v>
       </c>
       <c r="AS259">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT259">
         <v>1</v>
@@ -51256,7 +51256,7 @@
         <v>1.71</v>
       </c>
       <c r="AT260">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU260">
         <v>1.4</v>
@@ -55264,7 +55264,7 @@
         <v>1.33</v>
       </c>
       <c r="AS281">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT281">
         <v>1.36</v>
@@ -56031,7 +56031,7 @@
         <v>1.48</v>
       </c>
       <c r="AT285">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU285">
         <v>1.72</v>
@@ -59278,7 +59278,7 @@
         <v>1.19</v>
       </c>
       <c r="AT302">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU302">
         <v>1.46</v>
@@ -60039,7 +60039,7 @@
         <v>0.38</v>
       </c>
       <c r="AS306">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT306">
         <v>0.57</v>
@@ -61185,7 +61185,7 @@
         <v>1.46</v>
       </c>
       <c r="AS312">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT312">
         <v>1.29</v>
@@ -63480,7 +63480,7 @@
         <v>1.71</v>
       </c>
       <c r="AT324">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU324">
         <v>1.17</v>
@@ -65387,7 +65387,7 @@
         <v>0.53</v>
       </c>
       <c r="AS334">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT334">
         <v>0.57</v>
@@ -67109,7 +67109,7 @@
         <v>1.43</v>
       </c>
       <c r="AT343">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU343">
         <v>1.5</v>
@@ -69592,7 +69592,7 @@
         <v>1.57</v>
       </c>
       <c r="AT356">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU356">
         <v>1.46</v>
@@ -69780,7 +69780,7 @@
         <v>0.75</v>
       </c>
       <c r="AS357">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT357">
         <v>0.71</v>
@@ -74558,7 +74558,7 @@
         <v>1.91</v>
       </c>
       <c r="AT382">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU382">
         <v>1.78</v>
@@ -75319,7 +75319,7 @@
         <v>1</v>
       </c>
       <c r="AS386">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT386">
         <v>1.1</v>
@@ -78378,7 +78378,7 @@
         <v>1.71</v>
       </c>
       <c r="AT402">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU402">
         <v>2.01</v>
@@ -79330,7 +79330,7 @@
         <v>0.82</v>
       </c>
       <c r="AS407">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT407">
         <v>0.8100000000000001</v>
@@ -81813,7 +81813,7 @@
         <v>0.84</v>
       </c>
       <c r="AS420">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT420">
         <v>0.95</v>
@@ -82198,7 +82198,7 @@
         <v>2</v>
       </c>
       <c r="AT422">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU422">
         <v>1.75</v>
@@ -86782,7 +86782,7 @@
         <v>1.57</v>
       </c>
       <c r="AT446">
-        <v>1.59</v>
+        <v>1.57</v>
       </c>
       <c r="AU446">
         <v>1.6</v>
@@ -87352,7 +87352,7 @@
         <v>0.7</v>
       </c>
       <c r="AS449">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="AT449">
         <v>0.67</v>
@@ -90220,7 +90220,7 @@
         <v>1.64</v>
       </c>
       <c r="AT464">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AU464">
         <v>1.82</v>
@@ -90411,7 +90411,7 @@
         <v>1.52</v>
       </c>
       <c r="AT465">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="AU465">
         <v>1.57</v>
@@ -90599,7 +90599,7 @@
         <v>1.56</v>
       </c>
       <c r="AS466">
-        <v>1.77</v>
+        <v>1.76</v>
       </c>
       <c r="AT466">
         <v>1.52</v>
@@ -90790,7 +90790,7 @@
         <v>1.67</v>
       </c>
       <c r="AS467">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="AT467">
         <v>1.64</v>
@@ -90845,6 +90845,197 @@
       </c>
       <c r="BK467">
         <v>14</v>
+      </c>
+    </row>
+    <row r="468" spans="1:63">
+      <c r="A468" s="1">
+        <v>467</v>
+      </c>
+      <c r="B468">
+        <v>6387836</v>
+      </c>
+      <c r="C468" t="s">
+        <v>63</v>
+      </c>
+      <c r="D468" t="s">
+        <v>64</v>
+      </c>
+      <c r="E468" s="2">
+        <v>45088.66666666666</v>
+      </c>
+      <c r="F468">
+        <v>0</v>
+      </c>
+      <c r="G468" t="s">
+        <v>77</v>
+      </c>
+      <c r="H468" t="s">
+        <v>65</v>
+      </c>
+      <c r="I468">
+        <v>0</v>
+      </c>
+      <c r="J468">
+        <v>0</v>
+      </c>
+      <c r="K468">
+        <v>0</v>
+      </c>
+      <c r="L468">
+        <v>0</v>
+      </c>
+      <c r="M468">
+        <v>0</v>
+      </c>
+      <c r="N468">
+        <v>0</v>
+      </c>
+      <c r="O468" t="s">
+        <v>87</v>
+      </c>
+      <c r="P468" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q468">
+        <v>5</v>
+      </c>
+      <c r="R468">
+        <v>2</v>
+      </c>
+      <c r="S468">
+        <v>7</v>
+      </c>
+      <c r="T468">
+        <v>3.1</v>
+      </c>
+      <c r="U468">
+        <v>1.87</v>
+      </c>
+      <c r="V468">
+        <v>3.75</v>
+      </c>
+      <c r="W468">
+        <v>1.55</v>
+      </c>
+      <c r="X468">
+        <v>2.25</v>
+      </c>
+      <c r="Y468">
+        <v>3.7</v>
+      </c>
+      <c r="Z468">
+        <v>1.24</v>
+      </c>
+      <c r="AA468">
+        <v>10.5</v>
+      </c>
+      <c r="AB468">
+        <v>1.02</v>
+      </c>
+      <c r="AC468">
+        <v>2.6</v>
+      </c>
+      <c r="AD468">
+        <v>2.95</v>
+      </c>
+      <c r="AE468">
+        <v>2.65</v>
+      </c>
+      <c r="AF468">
+        <v>1.08</v>
+      </c>
+      <c r="AG468">
+        <v>6.2</v>
+      </c>
+      <c r="AH468">
+        <v>1.54</v>
+      </c>
+      <c r="AI468">
+        <v>2.43</v>
+      </c>
+      <c r="AJ468">
+        <v>2.5</v>
+      </c>
+      <c r="AK468">
+        <v>1.47</v>
+      </c>
+      <c r="AL468">
+        <v>2.05</v>
+      </c>
+      <c r="AM468">
+        <v>1.7</v>
+      </c>
+      <c r="AN468">
+        <v>1.35</v>
+      </c>
+      <c r="AO468">
+        <v>1.35</v>
+      </c>
+      <c r="AP468">
+        <v>1.47</v>
+      </c>
+      <c r="AQ468">
+        <v>1.7</v>
+      </c>
+      <c r="AR468">
+        <v>1.77</v>
+      </c>
+      <c r="AS468">
+        <v>1.69</v>
+      </c>
+      <c r="AT468">
+        <v>1.76</v>
+      </c>
+      <c r="AU468">
+        <v>1.63</v>
+      </c>
+      <c r="AV468">
+        <v>1.35</v>
+      </c>
+      <c r="AW468">
+        <v>2.98</v>
+      </c>
+      <c r="AX468">
+        <v>1.84</v>
+      </c>
+      <c r="AY468">
+        <v>7.6</v>
+      </c>
+      <c r="AZ468">
+        <v>2.5</v>
+      </c>
+      <c r="BA468">
+        <v>1.35</v>
+      </c>
+      <c r="BB468">
+        <v>1.62</v>
+      </c>
+      <c r="BC468">
+        <v>2</v>
+      </c>
+      <c r="BD468">
+        <v>2.6</v>
+      </c>
+      <c r="BE468">
+        <v>3.55</v>
+      </c>
+      <c r="BF468">
+        <v>4</v>
+      </c>
+      <c r="BG468">
+        <v>7</v>
+      </c>
+      <c r="BH468">
+        <v>6</v>
+      </c>
+      <c r="BI468">
+        <v>3</v>
+      </c>
+      <c r="BJ468">
+        <v>10</v>
+      </c>
+      <c r="BK468">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -91020,22 +91020,22 @@
         <v>3.55</v>
       </c>
       <c r="BF468">
+        <v>3</v>
+      </c>
+      <c r="BG468">
+        <v>5</v>
+      </c>
+      <c r="BH468">
+        <v>2</v>
+      </c>
+      <c r="BI468">
         <v>4</v>
       </c>
-      <c r="BG468">
-        <v>7</v>
-      </c>
-      <c r="BH468">
-        <v>6</v>
-      </c>
-      <c r="BI468">
-        <v>3</v>
-      </c>
       <c r="BJ468">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="BK468">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Spain Segunda División_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2865" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2871" uniqueCount="424">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1284,6 +1284,9 @@
   <si>
     <t>['30', '34', '56']</t>
   </si>
+  <si>
+    <t>['120+9']</t>
+  </si>
 </sst>
 </file>
 
@@ -1644,7 +1647,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK468"/>
+  <dimension ref="A1:BK469"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1975,7 +1978,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT2">
         <v>0.76</v>
@@ -2551,7 +2554,7 @@
         <v>1.71</v>
       </c>
       <c r="AT5">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -7132,7 +7135,7 @@
         <v>0</v>
       </c>
       <c r="AS29">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT29">
         <v>0.71</v>
@@ -7708,7 +7711,7 @@
         <v>1.05</v>
       </c>
       <c r="AT32">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU32">
         <v>1.04</v>
@@ -10573,7 +10576,7 @@
         <v>0.9</v>
       </c>
       <c r="AT47">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU47">
         <v>1.06</v>
@@ -11143,7 +11146,7 @@
         <v>1.5</v>
       </c>
       <c r="AS50">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT50">
         <v>0.8100000000000001</v>
@@ -12480,7 +12483,7 @@
         <v>1.5</v>
       </c>
       <c r="AS57">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT57">
         <v>1.29</v>
@@ -16303,7 +16306,7 @@
         <v>1.48</v>
       </c>
       <c r="AT77">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU77">
         <v>1.55</v>
@@ -19550,7 +19553,7 @@
         <v>1.52</v>
       </c>
       <c r="AT94">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU94">
         <v>1.52</v>
@@ -20311,7 +20314,7 @@
         <v>0.75</v>
       </c>
       <c r="AS98">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT98">
         <v>1</v>
@@ -22988,7 +22991,7 @@
         <v>1.71</v>
       </c>
       <c r="AT112">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU112">
         <v>1.77</v>
@@ -23940,7 +23943,7 @@
         <v>0.6</v>
       </c>
       <c r="AS117">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT117">
         <v>0.8100000000000001</v>
@@ -29097,7 +29100,7 @@
         <v>1</v>
       </c>
       <c r="AS144">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT144">
         <v>0.8100000000000001</v>
@@ -29673,7 +29676,7 @@
         <v>1.57</v>
       </c>
       <c r="AT147">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU147">
         <v>1.53</v>
@@ -35021,7 +35024,7 @@
         <v>1.91</v>
       </c>
       <c r="AT175">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU175">
         <v>2.01</v>
@@ -35209,7 +35212,7 @@
         <v>1.71</v>
       </c>
       <c r="AS176">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT176">
         <v>1.71</v>
@@ -37886,7 +37889,7 @@
         <v>2.62</v>
       </c>
       <c r="AT190">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU190">
         <v>1.67</v>
@@ -39411,7 +39414,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AS198">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT198">
         <v>0.67</v>
@@ -40751,7 +40754,7 @@
         <v>2</v>
       </c>
       <c r="AT205">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU205">
         <v>1.95</v>
@@ -41512,7 +41515,7 @@
         <v>0.89</v>
       </c>
       <c r="AS209">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT209">
         <v>0.9</v>
@@ -45523,7 +45526,7 @@
         <v>1.2</v>
       </c>
       <c r="AS230">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT230">
         <v>1.36</v>
@@ -45717,7 +45720,7 @@
         <v>1.43</v>
       </c>
       <c r="AT231">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU231">
         <v>1.6</v>
@@ -48200,7 +48203,7 @@
         <v>1.67</v>
       </c>
       <c r="AT244">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU244">
         <v>1.14</v>
@@ -49343,7 +49346,7 @@
         <v>0.55</v>
       </c>
       <c r="AS250">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT250">
         <v>0.95</v>
@@ -53357,7 +53360,7 @@
         <v>1.62</v>
       </c>
       <c r="AT271">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU271">
         <v>1.63</v>
@@ -53545,7 +53548,7 @@
         <v>1.42</v>
       </c>
       <c r="AS272">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT272">
         <v>1.05</v>
@@ -56795,7 +56798,7 @@
         <v>1.62</v>
       </c>
       <c r="AT289">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU289">
         <v>1.66</v>
@@ -57174,7 +57177,7 @@
         <v>1</v>
       </c>
       <c r="AS291">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT291">
         <v>1.1</v>
@@ -61949,7 +61952,7 @@
         <v>0.57</v>
       </c>
       <c r="AS316">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT316">
         <v>0.57</v>
@@ -64817,7 +64820,7 @@
         <v>1.57</v>
       </c>
       <c r="AT331">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU331">
         <v>1.57</v>
@@ -66342,7 +66345,7 @@
         <v>1.4</v>
       </c>
       <c r="AS339">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT339">
         <v>1.36</v>
@@ -68064,7 +68067,7 @@
         <v>1.19</v>
       </c>
       <c r="AT348">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU348">
         <v>1.44</v>
@@ -71308,7 +71311,7 @@
         <v>1</v>
       </c>
       <c r="AS365">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT365">
         <v>0.9</v>
@@ -72266,7 +72269,7 @@
         <v>1.71</v>
       </c>
       <c r="AT370">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU370">
         <v>1.2</v>
@@ -76659,7 +76662,7 @@
         <v>1.57</v>
       </c>
       <c r="AT393">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU393">
         <v>1.56</v>
@@ -77420,7 +77423,7 @@
         <v>0.71</v>
       </c>
       <c r="AS397">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT397">
         <v>0.86</v>
@@ -79903,10 +79906,10 @@
         <v>1.28</v>
       </c>
       <c r="AS410">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT410">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU410">
         <v>1.66</v>
@@ -85445,7 +85448,7 @@
         <v>1.68</v>
       </c>
       <c r="AT439">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU439">
         <v>1.58</v>
@@ -85824,7 +85827,7 @@
         <v>0.53</v>
       </c>
       <c r="AS441">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT441">
         <v>0.57</v>
@@ -89265,7 +89268,7 @@
         <v>1.71</v>
       </c>
       <c r="AT459">
-        <v>1.18</v>
+        <v>1.26</v>
       </c>
       <c r="AU459">
         <v>1.94</v>
@@ -89453,7 +89456,7 @@
         <v>1.2</v>
       </c>
       <c r="AS460">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="AT460">
         <v>1.14</v>
@@ -90220,7 +90223,7 @@
         <v>1.64</v>
       </c>
       <c r="AT464">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AU464">
         <v>1.82</v>
@@ -90411,7 +90414,7 @@
         <v>1.52</v>
       </c>
       <c r="AT465">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU465">
         <v>1.57</v>
@@ -90599,7 +90602,7 @@
         <v>1.56</v>
       </c>
       <c r="AS466">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AT466">
         <v>1.52</v>
@@ -90790,7 +90793,7 @@
         <v>1.67</v>
       </c>
       <c r="AS467">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AT467">
         <v>1.64</v>
@@ -90981,10 +90984,10 @@
         <v>1.77</v>
       </c>
       <c r="AS468">
-        <v>1.69</v>
+        <v>1.72</v>
       </c>
       <c r="AT468">
-        <v>1.76</v>
+        <v>1.72</v>
       </c>
       <c r="AU468">
         <v>1.63</v>
@@ -91036,6 +91039,197 @@
       </c>
       <c r="BK468">
         <v>9</v>
+      </c>
+    </row>
+    <row r="469" spans="1:63">
+      <c r="A469" s="1">
+        <v>468</v>
+      </c>
+      <c r="B469">
+        <v>6387837</v>
+      </c>
+      <c r="C469" t="s">
+        <v>63</v>
+      </c>
+      <c r="D469" t="s">
+        <v>64</v>
+      </c>
+      <c r="E469" s="2">
+        <v>45094.66666666666</v>
+      </c>
+      <c r="F469">
+        <v>0</v>
+      </c>
+      <c r="G469" t="s">
+        <v>65</v>
+      </c>
+      <c r="H469" t="s">
+        <v>77</v>
+      </c>
+      <c r="I469">
+        <v>0</v>
+      </c>
+      <c r="J469">
+        <v>0</v>
+      </c>
+      <c r="K469">
+        <v>0</v>
+      </c>
+      <c r="L469">
+        <v>0</v>
+      </c>
+      <c r="M469">
+        <v>1</v>
+      </c>
+      <c r="N469">
+        <v>1</v>
+      </c>
+      <c r="O469" t="s">
+        <v>87</v>
+      </c>
+      <c r="P469" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q469">
+        <v>5</v>
+      </c>
+      <c r="R469">
+        <v>6</v>
+      </c>
+      <c r="S469">
+        <v>11</v>
+      </c>
+      <c r="T469">
+        <v>3.1</v>
+      </c>
+      <c r="U469">
+        <v>1.82</v>
+      </c>
+      <c r="V469">
+        <v>4.4</v>
+      </c>
+      <c r="W469">
+        <v>1.6</v>
+      </c>
+      <c r="X469">
+        <v>2.38</v>
+      </c>
+      <c r="Y469">
+        <v>3.64</v>
+      </c>
+      <c r="Z469">
+        <v>1.26</v>
+      </c>
+      <c r="AA469">
+        <v>10.2</v>
+      </c>
+      <c r="AB469">
+        <v>1.03</v>
+      </c>
+      <c r="AC469">
+        <v>2.15</v>
+      </c>
+      <c r="AD469">
+        <v>2.8</v>
+      </c>
+      <c r="AE469">
+        <v>3.3</v>
+      </c>
+      <c r="AF469">
+        <v>1.08</v>
+      </c>
+      <c r="AG469">
+        <v>6.2</v>
+      </c>
+      <c r="AH469">
+        <v>1.5</v>
+      </c>
+      <c r="AI469">
+        <v>2.45</v>
+      </c>
+      <c r="AJ469">
+        <v>2.55</v>
+      </c>
+      <c r="AK469">
+        <v>1.45</v>
+      </c>
+      <c r="AL469">
+        <v>2.16</v>
+      </c>
+      <c r="AM469">
+        <v>1.67</v>
+      </c>
+      <c r="AN469">
+        <v>1.17</v>
+      </c>
+      <c r="AO469">
+        <v>1.4</v>
+      </c>
+      <c r="AP469">
+        <v>1.67</v>
+      </c>
+      <c r="AQ469">
+        <v>1.76</v>
+      </c>
+      <c r="AR469">
+        <v>1.69</v>
+      </c>
+      <c r="AS469">
+        <v>1.72</v>
+      </c>
+      <c r="AT469">
+        <v>1.72</v>
+      </c>
+      <c r="AU469">
+        <v>1.73</v>
+      </c>
+      <c r="AV469">
+        <v>1.2</v>
+      </c>
+      <c r="AW469">
+        <v>2.93</v>
+      </c>
+      <c r="AX469">
+        <v>1.75</v>
+      </c>
+      <c r="AY469">
+        <v>8</v>
+      </c>
+      <c r="AZ469">
+        <v>2.44</v>
+      </c>
+      <c r="BA469">
+        <v>1.3</v>
+      </c>
+      <c r="BB469">
+        <v>1.6</v>
+      </c>
+      <c r="BC469">
+        <v>1.85</v>
+      </c>
+      <c r="BD469">
+        <v>2.45</v>
+      </c>
+      <c r="BE469">
+        <v>3.55</v>
+      </c>
+      <c r="BF469">
+        <v>5</v>
+      </c>
+      <c r="BG469">
+        <v>7</v>
+      </c>
+      <c r="BH469">
+        <v>10</v>
+      </c>
+      <c r="BI469">
+        <v>8</v>
+      </c>
+      <c r="BJ469">
+        <v>15</v>
+      </c>
+      <c r="BK469">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
